--- a/_apidocs/sam-entity-extracts-api/v1/SAM Master Extract Mapping v6.0 FOUO File V2 Layout.xlsx
+++ b/_apidocs/sam-entity-extracts-api/v1/SAM Master Extract Mapping v6.0 FOUO File V2 Layout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RafaelVILLAVICENCIO\Desktop\INT050 New Spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D085A7F-B152-479F-BFC8-01BC69323444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C4057A-CAE0-4128-9B68-8DC8EAA00AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Element Mapping" sheetId="4" r:id="rId1"/>
@@ -2476,25 +2476,9 @@
     <t>Mandatory to be present if the entity has an Ultimate Parent on file with D&amp;B</t>
   </si>
   <si>
-    <t>UNIQUE ENTITY IDENTIFIER (SAM)</t>
-  </si>
-  <si>
-    <t>ULTIMATE PARENT UNIQUE ENTITY ID (SAM)</t>
-  </si>
-  <si>
-    <t>The Unique Entity Identifier (SAM) for the entity.
-It is 12-character alpha-numeric. Example: F847A1795DE4</t>
-  </si>
-  <si>
     <t>This is the UEI number of the ultimate parent entity of the registrant</t>
   </si>
   <si>
-    <t>DOMESTIC PARENT UNIQUE ENTITY IDENTIFIER (SAM)</t>
-  </si>
-  <si>
-    <t>HQ PARENT UNIQUE ENTITY IDENTIFIER (SAM)</t>
-  </si>
-  <si>
     <t>This is the UEI number of the hq parent entity of the registrant</t>
   </si>
   <si>
@@ -2538,9 +2522,6 @@
   </si>
   <si>
     <t>D&amp;B OPEN DATA FLAG</t>
-  </si>
-  <si>
-    <t>IMMEDIATE PARENT UNIQUE ENTITY IDENTIFIER (SAM)</t>
   </si>
   <si>
     <t>This is the UEI number of the immediate parent entity of the registrant</t>
@@ -2698,6 +2679,25 @@
   </si>
   <si>
     <t>The office code is an up-to six character identifier representing a U.S. government office in the SAM Federal hierarchy. This code exists independently of the unique entity identifier used for registration purposes, i.e. UEI(SAM), DoDAAC, or CAGE Code.</t>
+  </si>
+  <si>
+    <t>UNIQUE ENTITY ID</t>
+  </si>
+  <si>
+    <t>The UNIQUE ENTITY ID for the entity.
+It is 12-character alpha-numeric. Example: F847A1795DE4</t>
+  </si>
+  <si>
+    <t>IMMEDIATE PARENT UNIQUE ENTITY ID</t>
+  </si>
+  <si>
+    <t>HQ PARENT UNIQUE ENTITY ID</t>
+  </si>
+  <si>
+    <t>DOMESTIC PARENT UNIQUE ENTITY ID</t>
+  </si>
+  <si>
+    <t>ULTIMATE PARENT UNIQUE ENTITY ID</t>
   </si>
 </sst>
 </file>
@@ -4292,7 +4292,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4404,7 +4404,7 @@
     </row>
     <row r="5" spans="1:15" ht="26" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
-        <v>803</v>
+        <v>869</v>
       </c>
       <c r="B5" s="19">
         <v>1</v>
@@ -4419,7 +4419,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>805</v>
+        <v>870</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="110" t="s">
@@ -4447,7 +4447,7 @@
     </row>
     <row r="6" spans="1:15" s="129" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="121" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="B6" s="122">
         <v>2</v>
@@ -4459,16 +4459,16 @@
         <v>396</v>
       </c>
       <c r="E6" s="122">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F6" s="123" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="G6" s="124"/>
       <c r="H6" s="125"/>
       <c r="I6" s="126"/>
       <c r="J6" s="127" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="K6" s="121" t="s">
         <v>403</v>
@@ -4510,7 +4510,7 @@
         <v>204</v>
       </c>
       <c r="I7" s="135" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="J7" s="133">
         <v>1111</v>
@@ -4636,7 +4636,7 @@
         <v>702</v>
       </c>
       <c r="G10" s="135" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="H10" s="23" t="s">
         <v>392</v>
@@ -4748,7 +4748,7 @@
     </row>
     <row r="13" spans="1:15" ht="71.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B13" s="19">
         <v>9</v>
@@ -4958,7 +4958,7 @@
     </row>
     <row r="18" spans="1:14" ht="25" x14ac:dyDescent="0.35">
       <c r="A18" s="22" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="B18" s="19">
         <v>14</v>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="28" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="A28" s="111" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B28" s="19">
         <v>24</v>
@@ -5401,7 +5401,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="104" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="G28" s="105"/>
       <c r="H28" s="23" t="s">
@@ -5513,7 +5513,7 @@
     </row>
     <row r="31" spans="1:14" ht="50" x14ac:dyDescent="0.35">
       <c r="A31" s="22" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="B31" s="19">
         <v>27</v>
@@ -11773,7 +11773,7 @@
     </row>
     <row r="175" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="A175" s="20" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="B175" s="19">
         <v>171</v>
@@ -11788,7 +11788,7 @@
         <v>150</v>
       </c>
       <c r="F175" s="24" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="G175" s="114"/>
       <c r="H175" s="115" t="s">
@@ -11816,7 +11816,7 @@
     </row>
     <row r="176" spans="1:14" ht="26" x14ac:dyDescent="0.35">
       <c r="A176" s="20" t="s">
-        <v>824</v>
+        <v>871</v>
       </c>
       <c r="B176" s="19">
         <v>172</v>
@@ -11831,7 +11831,7 @@
         <v>12</v>
       </c>
       <c r="F176" s="24" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="G176" s="105"/>
       <c r="H176" s="110" t="s">
@@ -11859,7 +11859,7 @@
     </row>
     <row r="177" spans="1:15" ht="26" x14ac:dyDescent="0.35">
       <c r="A177" s="20" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="B177" s="19">
         <v>173</v>
@@ -11874,7 +11874,7 @@
         <v>150</v>
       </c>
       <c r="F177" s="24" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="G177" s="114"/>
       <c r="H177" s="115" t="s">
@@ -11902,7 +11902,7 @@
     </row>
     <row r="178" spans="1:15" ht="26" x14ac:dyDescent="0.35">
       <c r="A178" s="20" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="B178" s="19">
         <v>174</v>
@@ -11917,7 +11917,7 @@
         <v>150</v>
       </c>
       <c r="F178" s="24" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="G178" s="114"/>
       <c r="H178" s="115" t="s">
@@ -11945,7 +11945,7 @@
     </row>
     <row r="179" spans="1:15" ht="25" x14ac:dyDescent="0.35">
       <c r="A179" s="20" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="B179" s="19">
         <v>175</v>
@@ -11960,7 +11960,7 @@
         <v>40</v>
       </c>
       <c r="F179" s="24" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="G179" s="114"/>
       <c r="H179" s="115" t="s">
@@ -11988,7 +11988,7 @@
     </row>
     <row r="180" spans="1:15" ht="26" x14ac:dyDescent="0.35">
       <c r="A180" s="20" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="B180" s="19">
         <v>176</v>
@@ -12003,7 +12003,7 @@
         <v>50</v>
       </c>
       <c r="F180" s="24" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="G180" s="114"/>
       <c r="H180" s="115" t="s">
@@ -12031,7 +12031,7 @@
     </row>
     <row r="181" spans="1:15" ht="26" x14ac:dyDescent="0.35">
       <c r="A181" s="20" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="B181" s="19">
         <v>177</v>
@@ -12046,7 +12046,7 @@
         <v>3</v>
       </c>
       <c r="F181" s="24" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="G181" s="114"/>
       <c r="H181" s="115" t="s">
@@ -12074,7 +12074,7 @@
     </row>
     <row r="182" spans="1:15" ht="26" x14ac:dyDescent="0.35">
       <c r="A182" s="20" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="B182" s="19">
         <v>178</v>
@@ -12089,7 +12089,7 @@
         <v>55</v>
       </c>
       <c r="F182" s="24" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="G182" s="114"/>
       <c r="H182" s="115" t="s">
@@ -12117,7 +12117,7 @@
     </row>
     <row r="183" spans="1:15" ht="26" x14ac:dyDescent="0.35">
       <c r="A183" s="20" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="B183" s="19">
         <v>179</v>
@@ -12132,7 +12132,7 @@
         <v>30</v>
       </c>
       <c r="F183" s="24" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G183" s="114"/>
       <c r="H183" s="115" t="s">
@@ -12160,7 +12160,7 @@
     </row>
     <row r="184" spans="1:15" ht="25" x14ac:dyDescent="0.35">
       <c r="A184" s="22" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="B184" s="19">
         <v>180</v>
@@ -12182,7 +12182,7 @@
         <v>688</v>
       </c>
       <c r="I184" s="23" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="J184" s="20" t="s">
         <v>420</v>
@@ -12205,7 +12205,7 @@
     </row>
     <row r="185" spans="1:15" ht="25" x14ac:dyDescent="0.35">
       <c r="A185" s="20" t="s">
-        <v>808</v>
+        <v>872</v>
       </c>
       <c r="B185" s="19">
         <v>181</v>
@@ -12220,7 +12220,7 @@
         <v>12</v>
       </c>
       <c r="F185" s="24" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="G185" s="105"/>
       <c r="H185" s="110" t="s">
@@ -12248,7 +12248,7 @@
     </row>
     <row r="186" spans="1:15" ht="26" x14ac:dyDescent="0.35">
       <c r="A186" s="140" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="B186" s="139">
         <v>182</v>
@@ -12260,16 +12260,16 @@
         <v>396</v>
       </c>
       <c r="E186" s="139">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F186" s="123" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="G186" s="140"/>
       <c r="H186" s="125"/>
       <c r="I186" s="141"/>
       <c r="J186" s="142" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="K186" s="130" t="s">
         <v>398</v>
@@ -12293,7 +12293,7 @@
     </row>
     <row r="187" spans="1:15" ht="25" x14ac:dyDescent="0.35">
       <c r="A187" s="22" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B187" s="19">
         <v>183</v>
@@ -12315,7 +12315,7 @@
         <v>688</v>
       </c>
       <c r="I187" s="23" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="J187" s="20" t="s">
         <v>480</v>
@@ -12338,7 +12338,7 @@
     </row>
     <row r="188" spans="1:15" ht="25" x14ac:dyDescent="0.35">
       <c r="A188" s="22" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B188" s="19">
         <v>184</v>
@@ -12360,7 +12360,7 @@
         <v>688</v>
       </c>
       <c r="I188" s="23" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="J188" s="20" t="s">
         <v>478</v>
@@ -12383,7 +12383,7 @@
     </row>
     <row r="189" spans="1:15" ht="25" x14ac:dyDescent="0.35">
       <c r="A189" s="22" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B189" s="19">
         <v>185</v>
@@ -12405,7 +12405,7 @@
         <v>688</v>
       </c>
       <c r="I189" s="23" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="J189" s="20" t="s">
         <v>465</v>
@@ -12428,7 +12428,7 @@
     </row>
     <row r="190" spans="1:15" ht="25" x14ac:dyDescent="0.35">
       <c r="A190" s="22" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="B190" s="19">
         <v>186</v>
@@ -12450,7 +12450,7 @@
         <v>688</v>
       </c>
       <c r="I190" s="23" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="J190" s="15" t="s">
         <v>421</v>
@@ -12473,7 +12473,7 @@
     </row>
     <row r="191" spans="1:15" ht="25" x14ac:dyDescent="0.35">
       <c r="A191" s="22" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="B191" s="19">
         <v>187</v>
@@ -12495,7 +12495,7 @@
         <v>688</v>
       </c>
       <c r="I191" s="23" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="J191" s="20" t="s">
         <v>467</v>
@@ -12518,7 +12518,7 @@
     </row>
     <row r="192" spans="1:15" ht="25" x14ac:dyDescent="0.35">
       <c r="A192" s="22" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B192" s="19">
         <v>188</v>
@@ -12540,7 +12540,7 @@
         <v>688</v>
       </c>
       <c r="I192" s="23" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="J192" s="20" t="s">
         <v>466</v>
@@ -12563,7 +12563,7 @@
     </row>
     <row r="193" spans="1:15" ht="25" x14ac:dyDescent="0.35">
       <c r="A193" s="22" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B193" s="19">
         <v>189</v>
@@ -12585,7 +12585,7 @@
         <v>688</v>
       </c>
       <c r="I193" s="23" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="J193" s="15" t="s">
         <v>401</v>
@@ -12608,7 +12608,7 @@
     </row>
     <row r="194" spans="1:15" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A194" s="130" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="B194" s="19">
         <v>190</v>
@@ -12653,7 +12653,7 @@
     </row>
     <row r="195" spans="1:15" ht="26" x14ac:dyDescent="0.35">
       <c r="A195" s="133" t="s">
-        <v>807</v>
+        <v>873</v>
       </c>
       <c r="B195" s="19">
         <v>191</v>
@@ -12668,7 +12668,7 @@
         <v>12</v>
       </c>
       <c r="F195" s="24" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="G195" s="105"/>
       <c r="H195" s="110" t="s">
@@ -12696,7 +12696,7 @@
     </row>
     <row r="196" spans="1:15" ht="26" x14ac:dyDescent="0.35">
       <c r="A196" s="138" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="B196" s="139">
         <v>192</v>
@@ -12708,16 +12708,16 @@
         <v>396</v>
       </c>
       <c r="E196" s="139">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F196" s="123" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="G196" s="140"/>
       <c r="H196" s="125"/>
       <c r="I196" s="141"/>
       <c r="J196" s="142" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="K196" s="130" t="s">
         <v>398</v>
@@ -12741,7 +12741,7 @@
     </row>
     <row r="197" spans="1:15" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A197" s="130" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="B197" s="19">
         <v>193</v>
@@ -12786,7 +12786,7 @@
     </row>
     <row r="198" spans="1:15" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A198" s="130" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="B198" s="19">
         <v>194</v>
@@ -12831,7 +12831,7 @@
     </row>
     <row r="199" spans="1:15" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A199" s="130" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="B199" s="19">
         <v>195</v>
@@ -12876,7 +12876,7 @@
     </row>
     <row r="200" spans="1:15" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A200" s="130" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="B200" s="19">
         <v>196</v>
@@ -12921,7 +12921,7 @@
     </row>
     <row r="201" spans="1:15" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A201" s="130" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="B201" s="19">
         <v>197</v>
@@ -12966,7 +12966,7 @@
     </row>
     <row r="202" spans="1:15" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A202" s="130" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="B202" s="19">
         <v>198</v>
@@ -13011,7 +13011,7 @@
     </row>
     <row r="203" spans="1:15" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A203" s="130" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="B203" s="19">
         <v>199</v>
@@ -13101,7 +13101,7 @@
     </row>
     <row r="205" spans="1:15" ht="26" x14ac:dyDescent="0.35">
       <c r="A205" s="25" t="s">
-        <v>804</v>
+        <v>874</v>
       </c>
       <c r="B205" s="19">
         <v>201</v>
@@ -13116,7 +13116,7 @@
         <v>12</v>
       </c>
       <c r="F205" s="24" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="G205" s="105"/>
       <c r="H205" s="110" t="s">
@@ -13144,7 +13144,7 @@
     </row>
     <row r="206" spans="1:15" ht="26" x14ac:dyDescent="0.35">
       <c r="A206" s="138" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="B206" s="139">
         <v>202</v>
@@ -13156,16 +13156,16 @@
         <v>396</v>
       </c>
       <c r="E206" s="139">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F206" s="123" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="G206" s="140"/>
       <c r="H206" s="125"/>
       <c r="I206" s="141"/>
       <c r="J206" s="142" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="K206" s="130" t="s">
         <v>398</v>
@@ -15938,7 +15938,7 @@
         <v>1</v>
       </c>
       <c r="F270" s="24" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="G270" s="20"/>
       <c r="H270" s="23" t="s">
@@ -16599,7 +16599,7 @@
         <v>6</v>
       </c>
       <c r="F285" s="132" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="G285" s="20"/>
       <c r="H285" s="23" t="s">
@@ -18020,7 +18020,7 @@
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A318" s="102" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="B318" s="19">
         <v>314</v>
@@ -18035,7 +18035,7 @@
         <v>10</v>
       </c>
       <c r="F318" s="104" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="G318" s="105"/>
       <c r="H318" s="106" t="s">
@@ -18043,7 +18043,7 @@
       </c>
       <c r="I318" s="106"/>
       <c r="J318" s="105" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="K318" s="102" t="s">
         <v>403</v>
@@ -18063,7 +18063,7 @@
     </row>
     <row r="319" spans="1:14" ht="25" x14ac:dyDescent="0.35">
       <c r="A319" s="102" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="B319" s="19">
         <v>315</v>
@@ -18078,7 +18078,7 @@
         <v>10</v>
       </c>
       <c r="F319" s="104" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="G319" s="105"/>
       <c r="H319" s="106" t="s">
@@ -18086,7 +18086,7 @@
       </c>
       <c r="I319" s="106"/>
       <c r="J319" s="105" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="K319" s="102" t="s">
         <v>398</v>
@@ -18106,7 +18106,7 @@
     </row>
     <row r="320" spans="1:14" ht="25" x14ac:dyDescent="0.35">
       <c r="A320" s="102" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B320" s="19">
         <v>316</v>
@@ -18121,17 +18121,17 @@
         <v>10</v>
       </c>
       <c r="F320" s="104" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="G320" s="105"/>
       <c r="H320" s="106" t="s">
         <v>688</v>
       </c>
       <c r="I320" s="106" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="J320" s="105" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="K320" s="102" t="s">
         <v>398</v>
@@ -18151,7 +18151,7 @@
     </row>
     <row r="321" spans="1:14" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A321" s="102" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="B321" s="19">
         <v>317</v>
@@ -18166,17 +18166,17 @@
         <v>10</v>
       </c>
       <c r="F321" s="104" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="G321" s="105"/>
       <c r="H321" s="106" t="s">
         <v>688</v>
       </c>
       <c r="I321" s="106" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="J321" s="105" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="K321" s="102" t="s">
         <v>398</v>
@@ -18196,7 +18196,7 @@
     </row>
     <row r="322" spans="1:14" ht="25" x14ac:dyDescent="0.35">
       <c r="A322" s="102" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="B322" s="19">
         <v>318</v>
@@ -18211,17 +18211,17 @@
         <v>10</v>
       </c>
       <c r="F322" s="104" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="G322" s="105"/>
       <c r="H322" s="106" t="s">
         <v>688</v>
       </c>
       <c r="I322" s="106" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="J322" s="105" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="K322" s="102" t="s">
         <v>398</v>
@@ -18241,7 +18241,7 @@
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A323" s="102" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B323" s="19">
         <v>319</v>
@@ -18282,7 +18282,7 @@
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A324" s="102" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B324" s="19">
         <v>320</v>
@@ -18323,7 +18323,7 @@
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A325" s="102" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B325" s="19">
         <v>321</v>

--- a/_apidocs/sam-entity-extracts-api/v1/SAM Master Extract Mapping v6.0 FOUO File V2 Layout.xlsx
+++ b/_apidocs/sam-entity-extracts-api/v1/SAM Master Extract Mapping v6.0 FOUO File V2 Layout.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RafaelVILLAVICENCIO\Desktop\INT050 New Spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C4057A-CAE0-4128-9B68-8DC8EAA00AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C523C8A-6BCA-4B15-8856-1F4C8DA0FC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2878" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="876">
   <si>
     <t>Breakdown of the string and example below:</t>
   </si>
@@ -2698,6 +2698,9 @@
   </si>
   <si>
     <t>ULTIMATE PARENT UNIQUE ENTITY ID</t>
+  </si>
+  <si>
+    <t>Last Updated: 2022-04-01</t>
   </si>
 </sst>
 </file>
@@ -4286,13 +4289,13 @@
   <sheetPr codeName="Sheet2">
     <tabColor indexed="18"/>
   </sheetPr>
-  <dimension ref="A1:O338"/>
+  <dimension ref="A1:O340"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="N194" sqref="N194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6536,15 +6539,15 @@
         <v>428</v>
       </c>
       <c r="K54" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L54" s="25">
         <f t="shared" ref="L54:L85" si="14">IF(K54="Public",1,IF(K54="FOUO",2,IF(K54="Sensitive",3,IF(K54="System-Only",4))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M54" s="21" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N54" s="86" t="str">
         <f t="shared" si="3"/>
@@ -6579,15 +6582,15 @@
         <v>462</v>
       </c>
       <c r="K55" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L55" s="25">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M55" s="21" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N55" s="86" t="str">
         <f t="shared" si="3"/>
@@ -6622,15 +6625,15 @@
         <v>425</v>
       </c>
       <c r="K56" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L56" s="25">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M56" s="21" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N56" s="86" t="str">
         <f t="shared" si="3"/>
@@ -6665,15 +6668,15 @@
         <v>426</v>
       </c>
       <c r="K57" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L57" s="25">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M57" s="21" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N57" s="86" t="str">
         <f t="shared" si="3"/>
@@ -6708,15 +6711,15 @@
         <v>427</v>
       </c>
       <c r="K58" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L58" s="25">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M58" s="21" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N58" s="86" t="str">
         <f t="shared" si="3"/>
@@ -6751,15 +6754,15 @@
         <v>210</v>
       </c>
       <c r="K59" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L59" s="25">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M59" s="21" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N59" s="86" t="str">
         <f t="shared" si="3"/>
@@ -6794,15 +6797,15 @@
         <v>429</v>
       </c>
       <c r="K60" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L60" s="25">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M60" s="21" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N60" s="86" t="str">
         <f t="shared" si="3"/>
@@ -6839,15 +6842,15 @@
         <v>494</v>
       </c>
       <c r="K61" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L61" s="25">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M61" s="21" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N61" s="86" t="str">
         <f t="shared" si="3"/>
@@ -6882,15 +6885,15 @@
         <v>476</v>
       </c>
       <c r="K62" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L62" s="25">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M62" s="84" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N62" s="87" t="str">
         <f t="shared" si="3"/>
@@ -6925,15 +6928,15 @@
         <v>467</v>
       </c>
       <c r="K63" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L63" s="25">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M63" s="21" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N63" s="86" t="str">
         <f t="shared" si="3"/>
@@ -6970,15 +6973,15 @@
         <v>489</v>
       </c>
       <c r="K64" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L64" s="25">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M64" s="21" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N64" s="86" t="str">
         <f t="shared" si="3"/>
@@ -7232,15 +7235,15 @@
         <v>428</v>
       </c>
       <c r="K70" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L70" s="25">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M70" s="21" t="str">
         <f t="shared" ref="M70:M133" si="15">IF(L70&lt;=1,"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N70" s="86" t="str">
         <f t="shared" ref="N70:N133" si="16">IF(L70&lt;=2,"X","")</f>
@@ -7275,15 +7278,15 @@
         <v>462</v>
       </c>
       <c r="K71" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L71" s="25">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M71" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N71" s="86" t="str">
         <f t="shared" si="16"/>
@@ -7318,15 +7321,15 @@
         <v>425</v>
       </c>
       <c r="K72" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L72" s="25">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M72" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N72" s="86" t="str">
         <f t="shared" si="16"/>
@@ -7361,15 +7364,15 @@
         <v>426</v>
       </c>
       <c r="K73" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L73" s="25">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M73" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N73" s="86" t="str">
         <f t="shared" si="16"/>
@@ -7404,15 +7407,15 @@
         <v>427</v>
       </c>
       <c r="K74" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L74" s="25">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M74" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N74" s="86" t="str">
         <f t="shared" si="16"/>
@@ -7447,15 +7450,15 @@
         <v>210</v>
       </c>
       <c r="K75" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L75" s="25">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M75" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N75" s="86" t="str">
         <f t="shared" si="16"/>
@@ -7490,15 +7493,15 @@
         <v>429</v>
       </c>
       <c r="K76" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L76" s="25">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M76" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N76" s="86" t="str">
         <f t="shared" si="16"/>
@@ -7535,15 +7538,15 @@
         <v>494</v>
       </c>
       <c r="K77" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L77" s="25">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M77" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N77" s="86" t="str">
         <f t="shared" si="16"/>
@@ -7578,15 +7581,15 @@
         <v>476</v>
       </c>
       <c r="K78" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L78" s="25">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M78" s="84" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N78" s="87" t="str">
         <f t="shared" si="16"/>
@@ -7621,15 +7624,15 @@
         <v>467</v>
       </c>
       <c r="K79" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L79" s="25">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M79" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N79" s="86" t="str">
         <f t="shared" si="16"/>
@@ -7666,15 +7669,15 @@
         <v>489</v>
       </c>
       <c r="K80" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L80" s="25">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M80" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N80" s="86" t="str">
         <f t="shared" si="16"/>
@@ -7928,15 +7931,15 @@
         <v>428</v>
       </c>
       <c r="K86" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L86" s="25">
         <f t="shared" ref="L86:L117" si="17">IF(K86="Public",1,IF(K86="FOUO",2,IF(K86="Sensitive",3,IF(K86="System-Only",4))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M86" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N86" s="86" t="str">
         <f t="shared" si="16"/>
@@ -7971,15 +7974,15 @@
         <v>462</v>
       </c>
       <c r="K87" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L87" s="25">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M87" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N87" s="86" t="str">
         <f t="shared" si="16"/>
@@ -8014,15 +8017,15 @@
         <v>425</v>
       </c>
       <c r="K88" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L88" s="25">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M88" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N88" s="86" t="str">
         <f t="shared" si="16"/>
@@ -8057,15 +8060,15 @@
         <v>426</v>
       </c>
       <c r="K89" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L89" s="25">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M89" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N89" s="86" t="str">
         <f t="shared" si="16"/>
@@ -8100,15 +8103,15 @@
         <v>427</v>
       </c>
       <c r="K90" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L90" s="25">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M90" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N90" s="86" t="str">
         <f t="shared" si="16"/>
@@ -8143,15 +8146,15 @@
         <v>210</v>
       </c>
       <c r="K91" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L91" s="25">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M91" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N91" s="86" t="str">
         <f t="shared" si="16"/>
@@ -8186,15 +8189,15 @@
         <v>429</v>
       </c>
       <c r="K92" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L92" s="25">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M92" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N92" s="86" t="str">
         <f t="shared" si="16"/>
@@ -8231,15 +8234,15 @@
         <v>494</v>
       </c>
       <c r="K93" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L93" s="25">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M93" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N93" s="86" t="str">
         <f t="shared" si="16"/>
@@ -8274,15 +8277,15 @@
         <v>476</v>
       </c>
       <c r="K94" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L94" s="25">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M94" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N94" s="86" t="str">
         <f t="shared" si="16"/>
@@ -8317,15 +8320,15 @@
         <v>467</v>
       </c>
       <c r="K95" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L95" s="25">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M95" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N95" s="86" t="str">
         <f t="shared" si="16"/>
@@ -8362,15 +8365,15 @@
         <v>489</v>
       </c>
       <c r="K96" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L96" s="25">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M96" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N96" s="86" t="str">
         <f t="shared" si="16"/>
@@ -8624,15 +8627,15 @@
         <v>428</v>
       </c>
       <c r="K102" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L102" s="25">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M102" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N102" s="86" t="str">
         <f t="shared" si="16"/>
@@ -8667,15 +8670,15 @@
         <v>462</v>
       </c>
       <c r="K103" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L103" s="25">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M103" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N103" s="86" t="str">
         <f t="shared" si="16"/>
@@ -8710,15 +8713,15 @@
         <v>425</v>
       </c>
       <c r="K104" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L104" s="25">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M104" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N104" s="86" t="str">
         <f t="shared" si="16"/>
@@ -8753,15 +8756,15 @@
         <v>426</v>
       </c>
       <c r="K105" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L105" s="25">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M105" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N105" s="86" t="str">
         <f t="shared" si="16"/>
@@ -8796,15 +8799,15 @@
         <v>427</v>
       </c>
       <c r="K106" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L106" s="25">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M106" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N106" s="86" t="str">
         <f t="shared" si="16"/>
@@ -8839,15 +8842,15 @@
         <v>210</v>
       </c>
       <c r="K107" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L107" s="25">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M107" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N107" s="86" t="str">
         <f t="shared" si="16"/>
@@ -8882,15 +8885,15 @@
         <v>429</v>
       </c>
       <c r="K108" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L108" s="25">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M108" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N108" s="86" t="str">
         <f t="shared" si="16"/>
@@ -8927,15 +8930,15 @@
         <v>494</v>
       </c>
       <c r="K109" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L109" s="25">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M109" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N109" s="86" t="str">
         <f t="shared" si="16"/>
@@ -8970,15 +8973,15 @@
         <v>476</v>
       </c>
       <c r="K110" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L110" s="25">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M110" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N110" s="86" t="str">
         <f t="shared" si="16"/>
@@ -9013,15 +9016,15 @@
         <v>467</v>
       </c>
       <c r="K111" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L111" s="25">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M111" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N111" s="86" t="str">
         <f t="shared" si="16"/>
@@ -9058,15 +9061,15 @@
         <v>489</v>
       </c>
       <c r="K112" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L112" s="25">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M112" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N112" s="86" t="str">
         <f t="shared" si="16"/>
@@ -9320,15 +9323,15 @@
         <v>428</v>
       </c>
       <c r="K118" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L118" s="25">
         <f t="shared" ref="L118:L149" si="18">IF(K118="Public",1,IF(K118="FOUO",2,IF(K118="Sensitive",3,IF(K118="System-Only",4))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M118" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N118" s="86" t="str">
         <f t="shared" si="16"/>
@@ -9363,15 +9366,15 @@
         <v>462</v>
       </c>
       <c r="K119" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L119" s="25">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M119" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N119" s="86" t="str">
         <f t="shared" si="16"/>
@@ -9406,15 +9409,15 @@
         <v>425</v>
       </c>
       <c r="K120" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L120" s="25">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M120" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N120" s="86" t="str">
         <f t="shared" si="16"/>
@@ -9449,15 +9452,15 @@
         <v>426</v>
       </c>
       <c r="K121" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L121" s="25">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M121" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N121" s="86" t="str">
         <f t="shared" si="16"/>
@@ -9492,15 +9495,15 @@
         <v>427</v>
       </c>
       <c r="K122" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L122" s="25">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M122" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N122" s="86" t="str">
         <f t="shared" si="16"/>
@@ -9535,15 +9538,15 @@
         <v>210</v>
       </c>
       <c r="K123" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L123" s="25">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M123" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N123" s="86" t="str">
         <f t="shared" si="16"/>
@@ -9578,15 +9581,15 @@
         <v>429</v>
       </c>
       <c r="K124" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L124" s="25">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M124" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N124" s="86" t="str">
         <f t="shared" si="16"/>
@@ -9623,15 +9626,15 @@
         <v>494</v>
       </c>
       <c r="K125" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L125" s="25">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M125" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N125" s="86" t="str">
         <f t="shared" si="16"/>
@@ -9666,15 +9669,15 @@
         <v>476</v>
       </c>
       <c r="K126" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L126" s="25">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M126" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N126" s="86" t="str">
         <f t="shared" si="16"/>
@@ -9709,15 +9712,15 @@
         <v>467</v>
       </c>
       <c r="K127" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L127" s="25">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M127" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N127" s="86" t="str">
         <f t="shared" si="16"/>
@@ -9754,15 +9757,15 @@
         <v>489</v>
       </c>
       <c r="K128" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L128" s="25">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M128" s="21" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N128" s="86" t="str">
         <f t="shared" si="16"/>
@@ -10016,15 +10019,15 @@
         <v>428</v>
       </c>
       <c r="K134" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L134" s="25">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M134" s="21" t="str">
         <f t="shared" ref="M134:M209" si="19">IF(L134&lt;=1,"X","")</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N134" s="86" t="str">
         <f t="shared" ref="N134:N209" si="20">IF(L134&lt;=2,"X","")</f>
@@ -10059,15 +10062,15 @@
         <v>462</v>
       </c>
       <c r="K135" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L135" s="25">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M135" s="21" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N135" s="86" t="str">
         <f t="shared" si="20"/>
@@ -10102,15 +10105,15 @@
         <v>425</v>
       </c>
       <c r="K136" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L136" s="25">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M136" s="21" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N136" s="86" t="str">
         <f t="shared" si="20"/>
@@ -10145,15 +10148,15 @@
         <v>426</v>
       </c>
       <c r="K137" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L137" s="25">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M137" s="21" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N137" s="86" t="str">
         <f t="shared" si="20"/>
@@ -10188,15 +10191,15 @@
         <v>427</v>
       </c>
       <c r="K138" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L138" s="25">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M138" s="21" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N138" s="86" t="str">
         <f t="shared" si="20"/>
@@ -10231,15 +10234,15 @@
         <v>210</v>
       </c>
       <c r="K139" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L139" s="25">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M139" s="21" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N139" s="86" t="str">
         <f t="shared" si="20"/>
@@ -10274,15 +10277,15 @@
         <v>429</v>
       </c>
       <c r="K140" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L140" s="25">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M140" s="21" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N140" s="86" t="str">
         <f t="shared" si="20"/>
@@ -10319,15 +10322,15 @@
         <v>494</v>
       </c>
       <c r="K141" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L141" s="25">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M141" s="21" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N141" s="86" t="str">
         <f t="shared" si="20"/>
@@ -10362,15 +10365,15 @@
         <v>476</v>
       </c>
       <c r="K142" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L142" s="25">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M142" s="21" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N142" s="86" t="str">
         <f t="shared" si="20"/>
@@ -10405,15 +10408,15 @@
         <v>467</v>
       </c>
       <c r="K143" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L143" s="25">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M143" s="21" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N143" s="86" t="str">
         <f t="shared" si="20"/>
@@ -10450,15 +10453,15 @@
         <v>489</v>
       </c>
       <c r="K144" s="26" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L144" s="25">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M144" s="21" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N144" s="86" t="str">
         <f t="shared" si="20"/>
@@ -12734,10 +12737,7 @@
         <f t="shared" ref="N196" si="35">IF(L196&lt;=2,"X","")</f>
         <v>X</v>
       </c>
-      <c r="O196" s="137" t="str">
-        <f t="shared" ref="O196" si="36">IF(L196&lt;=3,"X","")</f>
-        <v>X</v>
-      </c>
+      <c r="O196" s="137"/>
     </row>
     <row r="197" spans="1:15" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A197" s="130" t="s">
@@ -13171,19 +13171,19 @@
         <v>398</v>
       </c>
       <c r="L206" s="133">
-        <f t="shared" ref="L206" si="37">IF(K206="Public",1,IF(K206="FOUO",2,IF(K206="Sensitive",3,IF(K206="System-Only",4))))</f>
+        <f t="shared" ref="L206" si="36">IF(K206="Public",1,IF(K206="FOUO",2,IF(K206="Sensitive",3,IF(K206="System-Only",4))))</f>
         <v>2</v>
       </c>
       <c r="M206" s="136" t="str">
-        <f t="shared" ref="M206" si="38">IF(L206&lt;=1,"X","")</f>
+        <f t="shared" ref="M206" si="37">IF(L206&lt;=1,"X","")</f>
         <v/>
       </c>
       <c r="N206" s="136" t="str">
-        <f t="shared" ref="N206" si="39">IF(L206&lt;=2,"X","")</f>
+        <f t="shared" ref="N206" si="38">IF(L206&lt;=2,"X","")</f>
         <v>X</v>
       </c>
       <c r="O206" s="137" t="str">
-        <f t="shared" ref="O206" si="40">IF(L206&lt;=3,"X","")</f>
+        <f t="shared" ref="O206" si="39">IF(L206&lt;=3,"X","")</f>
         <v>X</v>
       </c>
     </row>
@@ -13359,11 +13359,11 @@
         <v>2</v>
       </c>
       <c r="M210" s="21" t="str">
-        <f t="shared" ref="M210:M252" si="41">IF(L210&lt;=1,"X","")</f>
+        <f t="shared" ref="M210:M252" si="40">IF(L210&lt;=1,"X","")</f>
         <v/>
       </c>
       <c r="N210" s="86" t="str">
-        <f t="shared" ref="N210:N252" si="42">IF(L210&lt;=2,"X","")</f>
+        <f t="shared" ref="N210:N252" si="41">IF(L210&lt;=2,"X","")</f>
         <v>X</v>
       </c>
     </row>
@@ -13404,11 +13404,11 @@
         <v>2</v>
       </c>
       <c r="M211" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N211" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N211" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -13449,11 +13449,11 @@
         <v>2</v>
       </c>
       <c r="M212" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N212" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N212" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -13494,11 +13494,11 @@
         <v>2</v>
       </c>
       <c r="M213" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N213" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N213" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -13538,11 +13538,11 @@
         <v>2</v>
       </c>
       <c r="M214" s="21" t="str">
-        <f t="shared" ref="M214" si="43">IF(L214&lt;=1,"X","")</f>
+        <f t="shared" ref="M214" si="42">IF(L214&lt;=1,"X","")</f>
         <v/>
       </c>
       <c r="N214" s="86" t="str">
-        <f t="shared" ref="N214" si="44">IF(L214&lt;=2,"X","")</f>
+        <f t="shared" ref="N214" si="43">IF(L214&lt;=2,"X","")</f>
         <v>X</v>
       </c>
     </row>
@@ -13580,11 +13580,11 @@
         <v>2</v>
       </c>
       <c r="M215" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N215" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N215" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -13622,11 +13622,11 @@
         <v>2</v>
       </c>
       <c r="M216" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N216" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N216" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -13664,11 +13664,11 @@
         <v>2</v>
       </c>
       <c r="M217" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N217" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N217" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -13706,11 +13706,11 @@
         <v>2</v>
       </c>
       <c r="M218" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N218" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N218" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -13748,11 +13748,11 @@
         <v>2</v>
       </c>
       <c r="M219" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N219" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N219" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -13790,11 +13790,11 @@
         <v>2</v>
       </c>
       <c r="M220" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N220" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N220" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -13832,11 +13832,11 @@
         <v>2</v>
       </c>
       <c r="M221" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N221" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N221" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -13874,11 +13874,11 @@
         <v>2</v>
       </c>
       <c r="M222" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N222" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N222" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -13916,11 +13916,11 @@
         <v>2</v>
       </c>
       <c r="M223" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N223" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N223" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -13958,11 +13958,11 @@
         <v>2</v>
       </c>
       <c r="M224" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N224" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N224" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -14000,11 +14000,11 @@
         <v>2</v>
       </c>
       <c r="M225" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N225" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N225" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -14042,11 +14042,11 @@
         <v>2</v>
       </c>
       <c r="M226" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N226" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N226" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -14084,11 +14084,11 @@
         <v>2</v>
       </c>
       <c r="M227" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N227" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N227" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -14126,11 +14126,11 @@
         <v>2</v>
       </c>
       <c r="M228" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N228" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N228" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -14168,11 +14168,11 @@
         <v>2</v>
       </c>
       <c r="M229" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N229" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N229" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -14210,11 +14210,11 @@
         <v>2</v>
       </c>
       <c r="M230" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N230" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N230" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -14249,15 +14249,15 @@
         <v>398</v>
       </c>
       <c r="L231" s="25">
-        <f t="shared" ref="L231:L239" si="45">IF(K231="Public",1,IF(K231="FOUO",2,IF(K231="Sensitive",3,IF(K231="System-Only",4))))</f>
+        <f t="shared" ref="L231:L239" si="44">IF(K231="Public",1,IF(K231="FOUO",2,IF(K231="Sensitive",3,IF(K231="System-Only",4))))</f>
         <v>2</v>
       </c>
       <c r="M231" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N231" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N231" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -14292,15 +14292,15 @@
         <v>398</v>
       </c>
       <c r="L232" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>2</v>
       </c>
       <c r="M232" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N232" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N232" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -14335,15 +14335,15 @@
         <v>398</v>
       </c>
       <c r="L233" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>2</v>
       </c>
       <c r="M233" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N233" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N233" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -14378,15 +14378,15 @@
         <v>398</v>
       </c>
       <c r="L234" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>2</v>
       </c>
       <c r="M234" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N234" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N234" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -14423,15 +14423,15 @@
         <v>398</v>
       </c>
       <c r="L235" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>2</v>
       </c>
       <c r="M235" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N235" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N235" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -14466,15 +14466,15 @@
         <v>398</v>
       </c>
       <c r="L236" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>2</v>
       </c>
       <c r="M236" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N236" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N236" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -14511,15 +14511,15 @@
         <v>398</v>
       </c>
       <c r="L237" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>2</v>
       </c>
       <c r="M237" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N237" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N237" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -14554,15 +14554,15 @@
         <v>398</v>
       </c>
       <c r="L238" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>2</v>
       </c>
       <c r="M238" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N238" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N238" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -14597,15 +14597,15 @@
         <v>398</v>
       </c>
       <c r="L239" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>2</v>
       </c>
       <c r="M239" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N239" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N239" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -14645,11 +14645,11 @@
         <v>2</v>
       </c>
       <c r="M240" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N240" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N240" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -14689,11 +14689,11 @@
         <v>2</v>
       </c>
       <c r="M241" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N241" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N241" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -14728,15 +14728,15 @@
         <v>398</v>
       </c>
       <c r="L242" s="25">
-        <f t="shared" ref="L242:L266" si="46">IF(K242="Public",1,IF(K242="FOUO",2,IF(K242="Sensitive",3,IF(K242="System-Only",4))))</f>
+        <f t="shared" ref="L242:L266" si="45">IF(K242="Public",1,IF(K242="FOUO",2,IF(K242="Sensitive",3,IF(K242="System-Only",4))))</f>
         <v>2</v>
       </c>
       <c r="M242" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N242" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N242" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -14771,15 +14771,15 @@
         <v>398</v>
       </c>
       <c r="L243" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="M243" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N243" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N243" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -14814,15 +14814,15 @@
         <v>398</v>
       </c>
       <c r="L244" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="M244" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N244" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N244" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -14857,15 +14857,15 @@
         <v>398</v>
       </c>
       <c r="L245" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="M245" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N245" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N245" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -14902,15 +14902,15 @@
         <v>398</v>
       </c>
       <c r="L246" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="M246" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N246" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N246" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -14945,15 +14945,15 @@
         <v>398</v>
       </c>
       <c r="L247" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="M247" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N247" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N247" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -14990,15 +14990,15 @@
         <v>398</v>
       </c>
       <c r="L248" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="M248" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N248" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N248" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -15033,15 +15033,15 @@
         <v>398</v>
       </c>
       <c r="L249" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="M249" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N249" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N249" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -15076,15 +15076,15 @@
         <v>398</v>
       </c>
       <c r="L250" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="M250" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N250" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N250" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -15119,15 +15119,15 @@
         <v>398</v>
       </c>
       <c r="L251" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="M251" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N251" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N251" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -15162,15 +15162,15 @@
         <v>398</v>
       </c>
       <c r="L252" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="M252" s="21" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="N252" s="86" t="str">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="N252" s="86" t="str">
-        <f t="shared" si="42"/>
         <v>X</v>
       </c>
     </row>
@@ -15205,15 +15205,15 @@
         <v>398</v>
       </c>
       <c r="L253" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>2</v>
       </c>
       <c r="M253" s="21" t="str">
-        <f t="shared" ref="M253:M277" si="47">IF(L253&lt;=1,"X","")</f>
+        <f t="shared" ref="M253:M277" si="46">IF(L253&lt;=1,"X","")</f>
         <v/>
       </c>
       <c r="N253" s="86" t="str">
-        <f t="shared" ref="N253:N277" si="48">IF(L253&lt;=2,"X","")</f>
+        <f t="shared" ref="N253:N277" si="47">IF(L253&lt;=2,"X","")</f>
         <v>X</v>
       </c>
     </row>
@@ -15248,15 +15248,15 @@
         <v>398</v>
       </c>
       <c r="L254" s="25">
+        <f t="shared" si="45"/>
+        <v>2</v>
+      </c>
+      <c r="M254" s="21" t="str">
         <f t="shared" si="46"/>
-        <v>2</v>
-      </c>
-      <c r="M254" s="21" t="str">
+        <v/>
+      </c>
+      <c r="N254" s="86" t="str">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="N254" s="86" t="str">
-        <f t="shared" si="48"/>
         <v>X</v>
       </c>
     </row>
@@ -15291,15 +15291,15 @@
         <v>398</v>
       </c>
       <c r="L255" s="25">
+        <f t="shared" si="45"/>
+        <v>2</v>
+      </c>
+      <c r="M255" s="21" t="str">
         <f t="shared" si="46"/>
-        <v>2</v>
-      </c>
-      <c r="M255" s="21" t="str">
+        <v/>
+      </c>
+      <c r="N255" s="86" t="str">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="N255" s="86" t="str">
-        <f t="shared" si="48"/>
         <v>X</v>
       </c>
     </row>
@@ -15334,15 +15334,15 @@
         <v>398</v>
       </c>
       <c r="L256" s="25">
+        <f t="shared" si="45"/>
+        <v>2</v>
+      </c>
+      <c r="M256" s="21" t="str">
         <f t="shared" si="46"/>
-        <v>2</v>
-      </c>
-      <c r="M256" s="21" t="str">
+        <v/>
+      </c>
+      <c r="N256" s="86" t="str">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="N256" s="86" t="str">
-        <f t="shared" si="48"/>
         <v>X</v>
       </c>
     </row>
@@ -15377,15 +15377,15 @@
         <v>398</v>
       </c>
       <c r="L257" s="25">
+        <f t="shared" si="45"/>
+        <v>2</v>
+      </c>
+      <c r="M257" s="21" t="str">
         <f t="shared" si="46"/>
-        <v>2</v>
-      </c>
-      <c r="M257" s="21" t="str">
+        <v/>
+      </c>
+      <c r="N257" s="86" t="str">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="N257" s="86" t="str">
-        <f t="shared" si="48"/>
         <v>X</v>
       </c>
     </row>
@@ -15422,15 +15422,15 @@
         <v>398</v>
       </c>
       <c r="L258" s="25">
+        <f t="shared" si="45"/>
+        <v>2</v>
+      </c>
+      <c r="M258" s="21" t="str">
         <f t="shared" si="46"/>
-        <v>2</v>
-      </c>
-      <c r="M258" s="21" t="str">
+        <v/>
+      </c>
+      <c r="N258" s="86" t="str">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="N258" s="86" t="str">
-        <f t="shared" si="48"/>
         <v>X</v>
       </c>
     </row>
@@ -15467,15 +15467,15 @@
         <v>398</v>
       </c>
       <c r="L259" s="25">
+        <f t="shared" si="45"/>
+        <v>2</v>
+      </c>
+      <c r="M259" s="21" t="str">
         <f t="shared" si="46"/>
-        <v>2</v>
-      </c>
-      <c r="M259" s="21" t="str">
+        <v/>
+      </c>
+      <c r="N259" s="86" t="str">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="N259" s="86" t="str">
-        <f t="shared" si="48"/>
         <v>X</v>
       </c>
     </row>
@@ -15510,15 +15510,15 @@
         <v>398</v>
       </c>
       <c r="L260" s="25">
+        <f t="shared" si="45"/>
+        <v>2</v>
+      </c>
+      <c r="M260" s="21" t="str">
         <f t="shared" si="46"/>
-        <v>2</v>
-      </c>
-      <c r="M260" s="21" t="str">
+        <v/>
+      </c>
+      <c r="N260" s="86" t="str">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="N260" s="86" t="str">
-        <f t="shared" si="48"/>
         <v>X</v>
       </c>
     </row>
@@ -15555,15 +15555,15 @@
         <v>398</v>
       </c>
       <c r="L261" s="25">
+        <f t="shared" si="45"/>
+        <v>2</v>
+      </c>
+      <c r="M261" s="21" t="str">
         <f t="shared" si="46"/>
-        <v>2</v>
-      </c>
-      <c r="M261" s="21" t="str">
+        <v/>
+      </c>
+      <c r="N261" s="86" t="str">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="N261" s="86" t="str">
-        <f t="shared" si="48"/>
         <v>X</v>
       </c>
     </row>
@@ -15600,15 +15600,15 @@
         <v>398</v>
       </c>
       <c r="L262" s="25">
+        <f t="shared" si="45"/>
+        <v>2</v>
+      </c>
+      <c r="M262" s="21" t="str">
         <f t="shared" si="46"/>
-        <v>2</v>
-      </c>
-      <c r="M262" s="21" t="str">
+        <v/>
+      </c>
+      <c r="N262" s="86" t="str">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="N262" s="86" t="str">
-        <f t="shared" si="48"/>
         <v>X</v>
       </c>
     </row>
@@ -15643,15 +15643,15 @@
         <v>398</v>
       </c>
       <c r="L263" s="25">
+        <f t="shared" si="45"/>
+        <v>2</v>
+      </c>
+      <c r="M263" s="21" t="str">
         <f t="shared" si="46"/>
-        <v>2</v>
-      </c>
-      <c r="M263" s="21" t="str">
+        <v/>
+      </c>
+      <c r="N263" s="86" t="str">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="N263" s="86" t="str">
-        <f t="shared" si="48"/>
         <v>X</v>
       </c>
     </row>
@@ -15688,15 +15688,15 @@
         <v>398</v>
       </c>
       <c r="L264" s="25">
+        <f t="shared" si="45"/>
+        <v>2</v>
+      </c>
+      <c r="M264" s="21" t="str">
         <f t="shared" si="46"/>
-        <v>2</v>
-      </c>
-      <c r="M264" s="21" t="str">
+        <v/>
+      </c>
+      <c r="N264" s="86" t="str">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="N264" s="86" t="str">
-        <f t="shared" si="48"/>
         <v>X</v>
       </c>
     </row>
@@ -15731,15 +15731,15 @@
         <v>398</v>
       </c>
       <c r="L265" s="25">
+        <f t="shared" si="45"/>
+        <v>2</v>
+      </c>
+      <c r="M265" s="21" t="str">
         <f t="shared" si="46"/>
-        <v>2</v>
-      </c>
-      <c r="M265" s="21" t="str">
+        <v/>
+      </c>
+      <c r="N265" s="86" t="str">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="N265" s="86" t="str">
-        <f t="shared" si="48"/>
         <v>X</v>
       </c>
     </row>
@@ -15774,15 +15774,15 @@
         <v>398</v>
       </c>
       <c r="L266" s="25">
+        <f t="shared" si="45"/>
+        <v>2</v>
+      </c>
+      <c r="M266" s="21" t="str">
         <f t="shared" si="46"/>
-        <v>2</v>
-      </c>
-      <c r="M266" s="21" t="str">
+        <v/>
+      </c>
+      <c r="N266" s="86" t="str">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="N266" s="86" t="str">
-        <f t="shared" si="48"/>
         <v>X</v>
       </c>
     </row>
@@ -15821,11 +15821,11 @@
         <v>1</v>
       </c>
       <c r="M267" s="21" t="str">
+        <f t="shared" si="46"/>
+        <v>X</v>
+      </c>
+      <c r="N267" s="86" t="str">
         <f t="shared" si="47"/>
-        <v>X</v>
-      </c>
-      <c r="N267" s="86" t="str">
-        <f t="shared" si="48"/>
         <v>X</v>
       </c>
     </row>
@@ -15867,11 +15867,11 @@
         <v>1</v>
       </c>
       <c r="M268" s="21" t="str">
+        <f t="shared" si="46"/>
+        <v>X</v>
+      </c>
+      <c r="N268" s="86" t="str">
         <f t="shared" si="47"/>
-        <v>X</v>
-      </c>
-      <c r="N268" s="86" t="str">
-        <f t="shared" si="48"/>
         <v>X</v>
       </c>
     </row>
@@ -15913,11 +15913,11 @@
         <v>1</v>
       </c>
       <c r="M269" s="21" t="str">
+        <f t="shared" si="46"/>
+        <v>X</v>
+      </c>
+      <c r="N269" s="86" t="str">
         <f t="shared" si="47"/>
-        <v>X</v>
-      </c>
-      <c r="N269" s="86" t="str">
-        <f t="shared" si="48"/>
         <v>X</v>
       </c>
     </row>
@@ -15955,11 +15955,11 @@
         <v>1</v>
       </c>
       <c r="M270" s="21" t="str">
+        <f t="shared" si="46"/>
+        <v>X</v>
+      </c>
+      <c r="N270" s="86" t="str">
         <f t="shared" si="47"/>
-        <v>X</v>
-      </c>
-      <c r="N270" s="86" t="str">
-        <f t="shared" si="48"/>
         <v>X</v>
       </c>
     </row>
@@ -15998,11 +15998,11 @@
         <v>1</v>
       </c>
       <c r="M271" s="21" t="str">
+        <f t="shared" si="46"/>
+        <v>X</v>
+      </c>
+      <c r="N271" s="86" t="str">
         <f t="shared" si="47"/>
-        <v>X</v>
-      </c>
-      <c r="N271" s="86" t="str">
-        <f t="shared" si="48"/>
         <v>X</v>
       </c>
     </row>
@@ -16044,11 +16044,11 @@
         <v>1</v>
       </c>
       <c r="M272" s="21" t="str">
+        <f t="shared" si="46"/>
+        <v>X</v>
+      </c>
+      <c r="N272" s="86" t="str">
         <f t="shared" si="47"/>
-        <v>X</v>
-      </c>
-      <c r="N272" s="86" t="str">
-        <f t="shared" si="48"/>
         <v>X</v>
       </c>
     </row>
@@ -16087,11 +16087,11 @@
         <v>2</v>
       </c>
       <c r="M273" s="21" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="N273" s="86" t="str">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="N273" s="86" t="str">
-        <f t="shared" si="48"/>
         <v>X</v>
       </c>
     </row>
@@ -16133,11 +16133,11 @@
         <v>2</v>
       </c>
       <c r="M274" s="21" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="N274" s="86" t="str">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="N274" s="86" t="str">
-        <f t="shared" si="48"/>
         <v>X</v>
       </c>
     </row>
@@ -16179,11 +16179,11 @@
         <v>1</v>
       </c>
       <c r="M275" s="21" t="str">
-        <f t="shared" ref="M275" si="49">IF(L275&lt;=1,"X","")</f>
+        <f t="shared" ref="M275" si="48">IF(L275&lt;=1,"X","")</f>
         <v>X</v>
       </c>
       <c r="N275" s="86" t="str">
-        <f t="shared" ref="N275" si="50">IF(L275&lt;=2,"X","")</f>
+        <f t="shared" ref="N275" si="49">IF(L275&lt;=2,"X","")</f>
         <v>X</v>
       </c>
     </row>
@@ -16222,11 +16222,11 @@
         <v>1</v>
       </c>
       <c r="M276" s="21" t="str">
+        <f t="shared" si="46"/>
+        <v>X</v>
+      </c>
+      <c r="N276" s="86" t="str">
         <f t="shared" si="47"/>
-        <v>X</v>
-      </c>
-      <c r="N276" s="86" t="str">
-        <f t="shared" si="48"/>
         <v>X</v>
       </c>
     </row>
@@ -16268,11 +16268,11 @@
         <v>1</v>
       </c>
       <c r="M277" s="21" t="str">
+        <f t="shared" si="46"/>
+        <v>X</v>
+      </c>
+      <c r="N277" s="86" t="str">
         <f t="shared" si="47"/>
-        <v>X</v>
-      </c>
-      <c r="N277" s="86" t="str">
-        <f t="shared" si="48"/>
         <v>X</v>
       </c>
     </row>
@@ -16310,11 +16310,11 @@
         <v>2</v>
       </c>
       <c r="M278" s="21" t="str">
-        <f t="shared" ref="M278:M306" si="51">IF(L278&lt;=1,"X","")</f>
+        <f t="shared" ref="M278:M306" si="50">IF(L278&lt;=1,"X","")</f>
         <v/>
       </c>
       <c r="N278" s="86" t="str">
-        <f t="shared" ref="N278:N306" si="52">IF(L278&lt;=2,"X","")</f>
+        <f t="shared" ref="N278:N306" si="51">IF(L278&lt;=2,"X","")</f>
         <v>X</v>
       </c>
     </row>
@@ -16356,11 +16356,11 @@
         <v>2</v>
       </c>
       <c r="M279" s="21" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="N279" s="86" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N279" s="86" t="str">
-        <f t="shared" si="52"/>
         <v>X</v>
       </c>
     </row>
@@ -16398,11 +16398,11 @@
         <v>2</v>
       </c>
       <c r="M280" s="21" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="N280" s="86" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N280" s="86" t="str">
-        <f t="shared" si="52"/>
         <v>X</v>
       </c>
     </row>
@@ -16442,11 +16442,11 @@
         <v>2</v>
       </c>
       <c r="M281" s="21" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="N281" s="86" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N281" s="86" t="str">
-        <f t="shared" si="52"/>
         <v>X</v>
       </c>
     </row>
@@ -16486,11 +16486,11 @@
         <v>2</v>
       </c>
       <c r="M282" s="21" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="N282" s="86" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N282" s="86" t="str">
-        <f t="shared" si="52"/>
         <v>X</v>
       </c>
     </row>
@@ -16530,11 +16530,11 @@
         <v>2</v>
       </c>
       <c r="M283" s="21" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="N283" s="86" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N283" s="86" t="str">
-        <f t="shared" si="52"/>
         <v>X</v>
       </c>
     </row>
@@ -16574,11 +16574,11 @@
         <v>2</v>
       </c>
       <c r="M284" s="21" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="N284" s="86" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N284" s="86" t="str">
-        <f t="shared" si="52"/>
         <v>X</v>
       </c>
     </row>
@@ -16618,11 +16618,11 @@
         <v>2</v>
       </c>
       <c r="M285" s="21" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="N285" s="86" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N285" s="86" t="str">
-        <f t="shared" si="52"/>
         <v>X</v>
       </c>
     </row>
@@ -16657,15 +16657,15 @@
         <v>398</v>
       </c>
       <c r="L286" s="25">
-        <f t="shared" ref="L286:L314" si="53">IF(K286="Public",1,IF(K286="FOUO",2,IF(K286="Sensitive",3,IF(K286="System-Only",4))))</f>
+        <f t="shared" ref="L286:L314" si="52">IF(K286="Public",1,IF(K286="FOUO",2,IF(K286="Sensitive",3,IF(K286="System-Only",4))))</f>
         <v>2</v>
       </c>
       <c r="M286" s="21" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="N286" s="86" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N286" s="86" t="str">
-        <f t="shared" si="52"/>
         <v>X</v>
       </c>
     </row>
@@ -16700,15 +16700,15 @@
         <v>398</v>
       </c>
       <c r="L287" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="M287" s="21" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="N287" s="86" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N287" s="86" t="str">
-        <f t="shared" si="52"/>
         <v>X</v>
       </c>
     </row>
@@ -16743,15 +16743,15 @@
         <v>398</v>
       </c>
       <c r="L288" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="M288" s="21" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="N288" s="86" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N288" s="86" t="str">
-        <f t="shared" si="52"/>
         <v>X</v>
       </c>
     </row>
@@ -16786,15 +16786,15 @@
         <v>398</v>
       </c>
       <c r="L289" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="M289" s="21" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="N289" s="86" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N289" s="86" t="str">
-        <f t="shared" si="52"/>
         <v>X</v>
       </c>
     </row>
@@ -16829,15 +16829,15 @@
         <v>398</v>
       </c>
       <c r="L290" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="M290" s="21" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="N290" s="86" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N290" s="86" t="str">
-        <f t="shared" si="52"/>
         <v>X</v>
       </c>
     </row>
@@ -16872,15 +16872,15 @@
         <v>398</v>
       </c>
       <c r="L291" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="M291" s="21" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="N291" s="86" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N291" s="86" t="str">
-        <f t="shared" si="52"/>
         <v>X</v>
       </c>
     </row>
@@ -16915,15 +16915,15 @@
         <v>398</v>
       </c>
       <c r="L292" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="M292" s="21" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="N292" s="86" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N292" s="86" t="str">
-        <f t="shared" si="52"/>
         <v>X</v>
       </c>
     </row>
@@ -16960,15 +16960,15 @@
         <v>398</v>
       </c>
       <c r="L293" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="M293" s="21" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="N293" s="86" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N293" s="86" t="str">
-        <f t="shared" si="52"/>
         <v>X</v>
       </c>
     </row>
@@ -17003,15 +17003,15 @@
         <v>398</v>
       </c>
       <c r="L294" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="M294" s="21" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="N294" s="86" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N294" s="86" t="str">
-        <f t="shared" si="52"/>
         <v>X</v>
       </c>
     </row>
@@ -17046,15 +17046,15 @@
         <v>398</v>
       </c>
       <c r="L295" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="M295" s="21" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="N295" s="86" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N295" s="86" t="str">
-        <f t="shared" si="52"/>
         <v>X</v>
       </c>
     </row>
@@ -17091,15 +17091,15 @@
         <v>398</v>
       </c>
       <c r="L296" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="M296" s="21" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="N296" s="86" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N296" s="86" t="str">
-        <f t="shared" si="52"/>
         <v>X</v>
       </c>
     </row>
@@ -17136,15 +17136,15 @@
         <v>398</v>
       </c>
       <c r="L297" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="M297" s="21" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="N297" s="86" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N297" s="86" t="str">
-        <f t="shared" si="52"/>
         <v>X</v>
       </c>
     </row>
@@ -17179,15 +17179,15 @@
         <v>398</v>
       </c>
       <c r="L298" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="M298" s="21" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="N298" s="86" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N298" s="86" t="str">
-        <f t="shared" si="52"/>
         <v>X</v>
       </c>
     </row>
@@ -17224,15 +17224,15 @@
         <v>398</v>
       </c>
       <c r="L299" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="M299" s="21" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="N299" s="86" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N299" s="86" t="str">
-        <f t="shared" si="52"/>
         <v>X</v>
       </c>
     </row>
@@ -17267,15 +17267,15 @@
         <v>398</v>
       </c>
       <c r="L300" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="M300" s="21" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="N300" s="86" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N300" s="86" t="str">
-        <f t="shared" si="52"/>
         <v>X</v>
       </c>
     </row>
@@ -17310,15 +17310,15 @@
         <v>398</v>
       </c>
       <c r="L301" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="M301" s="21" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="N301" s="86" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N301" s="86" t="str">
-        <f t="shared" si="52"/>
         <v>X</v>
       </c>
     </row>
@@ -17353,15 +17353,15 @@
         <v>398</v>
       </c>
       <c r="L302" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="M302" s="21" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="N302" s="86" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N302" s="86" t="str">
-        <f t="shared" si="52"/>
         <v>X</v>
       </c>
     </row>
@@ -17396,15 +17396,15 @@
         <v>398</v>
       </c>
       <c r="L303" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="M303" s="21" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="N303" s="86" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N303" s="86" t="str">
-        <f t="shared" si="52"/>
         <v>X</v>
       </c>
     </row>
@@ -17439,15 +17439,15 @@
         <v>398</v>
       </c>
       <c r="L304" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="M304" s="21" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="N304" s="86" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N304" s="86" t="str">
-        <f t="shared" si="52"/>
         <v>X</v>
       </c>
     </row>
@@ -17482,15 +17482,15 @@
         <v>398</v>
       </c>
       <c r="L305" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="M305" s="21" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="N305" s="86" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N305" s="86" t="str">
-        <f t="shared" si="52"/>
         <v>X</v>
       </c>
     </row>
@@ -17525,15 +17525,15 @@
         <v>398</v>
       </c>
       <c r="L306" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="M306" s="21" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="N306" s="86" t="str">
         <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="N306" s="86" t="str">
-        <f t="shared" si="52"/>
         <v>X</v>
       </c>
     </row>
@@ -17568,15 +17568,15 @@
         <v>398</v>
       </c>
       <c r="L307" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>2</v>
       </c>
       <c r="M307" s="21" t="str">
-        <f t="shared" ref="M307:M317" si="54">IF(L307&lt;=1,"X","")</f>
+        <f t="shared" ref="M307:M317" si="53">IF(L307&lt;=1,"X","")</f>
         <v/>
       </c>
       <c r="N307" s="86" t="str">
-        <f t="shared" ref="N307:N317" si="55">IF(L307&lt;=2,"X","")</f>
+        <f t="shared" ref="N307:N317" si="54">IF(L307&lt;=2,"X","")</f>
         <v>X</v>
       </c>
     </row>
@@ -17611,15 +17611,15 @@
         <v>398</v>
       </c>
       <c r="L308" s="25">
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="M308" s="21" t="str">
         <f t="shared" si="53"/>
-        <v>2</v>
-      </c>
-      <c r="M308" s="21" t="str">
+        <v/>
+      </c>
+      <c r="N308" s="86" t="str">
         <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="N308" s="86" t="str">
-        <f t="shared" si="55"/>
         <v>X</v>
       </c>
     </row>
@@ -17656,15 +17656,15 @@
         <v>398</v>
       </c>
       <c r="L309" s="25">
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="M309" s="21" t="str">
         <f t="shared" si="53"/>
-        <v>2</v>
-      </c>
-      <c r="M309" s="21" t="str">
+        <v/>
+      </c>
+      <c r="N309" s="86" t="str">
         <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="N309" s="86" t="str">
-        <f t="shared" si="55"/>
         <v>X</v>
       </c>
     </row>
@@ -17699,15 +17699,15 @@
         <v>398</v>
       </c>
       <c r="L310" s="25">
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="M310" s="84" t="str">
         <f t="shared" si="53"/>
-        <v>2</v>
-      </c>
-      <c r="M310" s="84" t="str">
+        <v/>
+      </c>
+      <c r="N310" s="87" t="str">
         <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="N310" s="87" t="str">
-        <f t="shared" si="55"/>
         <v>X</v>
       </c>
     </row>
@@ -17742,15 +17742,15 @@
         <v>398</v>
       </c>
       <c r="L311" s="25">
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="M311" s="21" t="str">
         <f t="shared" si="53"/>
-        <v>2</v>
-      </c>
-      <c r="M311" s="21" t="str">
+        <v/>
+      </c>
+      <c r="N311" s="86" t="str">
         <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="N311" s="86" t="str">
-        <f t="shared" si="55"/>
         <v>X</v>
       </c>
     </row>
@@ -17787,15 +17787,15 @@
         <v>398</v>
       </c>
       <c r="L312" s="25">
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="M312" s="21" t="str">
         <f t="shared" si="53"/>
-        <v>2</v>
-      </c>
-      <c r="M312" s="21" t="str">
+        <v/>
+      </c>
+      <c r="N312" s="86" t="str">
         <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="N312" s="86" t="str">
-        <f t="shared" si="55"/>
         <v>X</v>
       </c>
     </row>
@@ -17832,15 +17832,15 @@
         <v>398</v>
       </c>
       <c r="L313" s="25">
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="M313" s="21" t="str">
         <f t="shared" si="53"/>
-        <v>2</v>
-      </c>
-      <c r="M313" s="21" t="str">
+        <v/>
+      </c>
+      <c r="N313" s="86" t="str">
         <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="N313" s="86" t="str">
-        <f t="shared" si="55"/>
         <v>X</v>
       </c>
     </row>
@@ -17875,15 +17875,15 @@
         <v>398</v>
       </c>
       <c r="L314" s="25">
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="M314" s="21" t="str">
         <f t="shared" si="53"/>
-        <v>2</v>
-      </c>
-      <c r="M314" s="21" t="str">
+        <v/>
+      </c>
+      <c r="N314" s="86" t="str">
         <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="N314" s="86" t="str">
-        <f t="shared" si="55"/>
         <v>X</v>
       </c>
     </row>
@@ -17920,15 +17920,15 @@
         <v>398</v>
       </c>
       <c r="L315" s="25">
-        <f t="shared" ref="L315:L318" si="56">IF(K315="Public",1,IF(K315="FOUO",2,IF(K315="Sensitive",3,IF(K315="System-Only",4))))</f>
+        <f t="shared" ref="L315:L318" si="55">IF(K315="Public",1,IF(K315="FOUO",2,IF(K315="Sensitive",3,IF(K315="System-Only",4))))</f>
         <v>2</v>
       </c>
       <c r="M315" s="21" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="N315" s="86" t="str">
         <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="N315" s="86" t="str">
-        <f t="shared" si="55"/>
         <v>X</v>
       </c>
     </row>
@@ -17963,15 +17963,15 @@
         <v>398</v>
       </c>
       <c r="L316" s="25">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>2</v>
       </c>
       <c r="M316" s="21" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="N316" s="86" t="str">
         <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="N316" s="86" t="str">
-        <f t="shared" si="55"/>
         <v>X</v>
       </c>
     </row>
@@ -18006,15 +18006,15 @@
         <v>398</v>
       </c>
       <c r="L317" s="25">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>2</v>
       </c>
       <c r="M317" s="21" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="N317" s="86" t="str">
         <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="N317" s="86" t="str">
-        <f t="shared" si="55"/>
         <v>X</v>
       </c>
     </row>
@@ -18049,21 +18049,21 @@
         <v>403</v>
       </c>
       <c r="L318" s="105">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="M318" s="107" t="str">
-        <f t="shared" ref="M318:M338" si="57">IF(L318&lt;=1,"X","")</f>
+        <f t="shared" ref="M318:M338" si="56">IF(L318&lt;=1,"X","")</f>
         <v>X</v>
       </c>
       <c r="N318" s="99" t="str">
-        <f t="shared" ref="N318:N338" si="58">IF(L318&lt;=2,"X","")</f>
+        <f t="shared" ref="N318:N338" si="57">IF(L318&lt;=2,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="319" spans="1:14" ht="25" x14ac:dyDescent="0.35">
       <c r="A319" s="102" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B319" s="19">
         <v>315</v>
@@ -18084,7 +18084,9 @@
       <c r="H319" s="106" t="s">
         <v>688</v>
       </c>
-      <c r="I319" s="106"/>
+      <c r="I319" s="106" t="s">
+        <v>847</v>
+      </c>
       <c r="J319" s="105" t="s">
         <v>843</v>
       </c>
@@ -18092,21 +18094,21 @@
         <v>398</v>
       </c>
       <c r="L319" s="105">
-        <f t="shared" ref="L319:L336" si="59">IF(K319="Public",1,IF(K319="FOUO",2,IF(K319="Sensitive",3,IF(K319="System-Only",4))))</f>
+        <f t="shared" ref="L319:L336" si="58">IF(K319="Public",1,IF(K319="FOUO",2,IF(K319="Sensitive",3,IF(K319="System-Only",4))))</f>
         <v>2</v>
       </c>
       <c r="M319" s="107" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="N319" s="99" t="str">
         <f t="shared" si="57"/>
-        <v/>
-      </c>
-      <c r="N319" s="99" t="str">
-        <f t="shared" si="58"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="320" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A320" s="102" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B320" s="19">
         <v>316</v>
@@ -18128,7 +18130,7 @@
         <v>688</v>
       </c>
       <c r="I320" s="106" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="J320" s="105" t="s">
         <v>843</v>
@@ -18137,21 +18139,21 @@
         <v>398</v>
       </c>
       <c r="L320" s="105">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="M320" s="107" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="N320" s="99" t="str">
         <f t="shared" si="57"/>
-        <v/>
-      </c>
-      <c r="N320" s="99" t="str">
-        <f t="shared" si="58"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="321" spans="1:14" ht="37.5" x14ac:dyDescent="0.35">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" ht="25" x14ac:dyDescent="0.35">
       <c r="A321" s="102" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B321" s="19">
         <v>317</v>
@@ -18173,7 +18175,7 @@
         <v>688</v>
       </c>
       <c r="I321" s="106" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="J321" s="105" t="s">
         <v>843</v>
@@ -18182,21 +18184,21 @@
         <v>398</v>
       </c>
       <c r="L321" s="105">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="M321" s="107" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="N321" s="99" t="str">
         <f t="shared" si="57"/>
-        <v/>
-      </c>
-      <c r="N321" s="99" t="str">
-        <f t="shared" si="58"/>
         <v>X</v>
       </c>
     </row>
     <row r="322" spans="1:14" ht="25" x14ac:dyDescent="0.35">
       <c r="A322" s="102" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="B322" s="19">
         <v>318</v>
@@ -18217,9 +18219,7 @@
       <c r="H322" s="106" t="s">
         <v>688</v>
       </c>
-      <c r="I322" s="106" t="s">
-        <v>851</v>
-      </c>
+      <c r="I322" s="106"/>
       <c r="J322" s="105" t="s">
         <v>843</v>
       </c>
@@ -18227,15 +18227,15 @@
         <v>398</v>
       </c>
       <c r="L322" s="105">
-        <f t="shared" si="59"/>
+        <f>IF(K322="Public",1,IF(K322="FOUO",2,IF(K322="Sensitive",3,IF(K322="System-Only",4))))</f>
         <v>2</v>
       </c>
       <c r="M322" s="107" t="str">
-        <f t="shared" si="57"/>
+        <f>IF(L322&lt;=1,"X","")</f>
         <v/>
       </c>
       <c r="N322" s="99" t="str">
-        <f t="shared" si="58"/>
+        <f>IF(L322&lt;=2,"X","")</f>
         <v>X</v>
       </c>
     </row>
@@ -18268,15 +18268,15 @@
         <v>403</v>
       </c>
       <c r="L323" s="105">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="M323" s="107" t="str">
+        <f t="shared" si="56"/>
+        <v>X</v>
+      </c>
+      <c r="N323" s="99" t="str">
         <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-      <c r="N323" s="99" t="str">
-        <f t="shared" si="58"/>
         <v>X</v>
       </c>
     </row>
@@ -18309,15 +18309,15 @@
         <v>403</v>
       </c>
       <c r="L324" s="105">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="M324" s="107" t="str">
+        <f t="shared" si="56"/>
+        <v>X</v>
+      </c>
+      <c r="N324" s="99" t="str">
         <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-      <c r="N324" s="99" t="str">
-        <f t="shared" si="58"/>
         <v>X</v>
       </c>
     </row>
@@ -18350,15 +18350,15 @@
         <v>403</v>
       </c>
       <c r="L325" s="105">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="M325" s="107" t="str">
+        <f t="shared" si="56"/>
+        <v>X</v>
+      </c>
+      <c r="N325" s="99" t="str">
         <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-      <c r="N325" s="99" t="str">
-        <f t="shared" si="58"/>
         <v>X</v>
       </c>
     </row>
@@ -18391,15 +18391,15 @@
         <v>403</v>
       </c>
       <c r="L326" s="105">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="M326" s="107" t="str">
+        <f t="shared" si="56"/>
+        <v>X</v>
+      </c>
+      <c r="N326" s="99" t="str">
         <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-      <c r="N326" s="99" t="str">
-        <f t="shared" si="58"/>
         <v>X</v>
       </c>
     </row>
@@ -18432,15 +18432,15 @@
         <v>403</v>
       </c>
       <c r="L327" s="105">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="M327" s="107" t="str">
+        <f t="shared" si="56"/>
+        <v>X</v>
+      </c>
+      <c r="N327" s="99" t="str">
         <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-      <c r="N327" s="99" t="str">
-        <f t="shared" si="58"/>
         <v>X</v>
       </c>
     </row>
@@ -18473,15 +18473,15 @@
         <v>403</v>
       </c>
       <c r="L328" s="105">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="M328" s="107" t="str">
+        <f t="shared" si="56"/>
+        <v>X</v>
+      </c>
+      <c r="N328" s="99" t="str">
         <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-      <c r="N328" s="99" t="str">
-        <f t="shared" si="58"/>
         <v>X</v>
       </c>
     </row>
@@ -18514,15 +18514,15 @@
         <v>403</v>
       </c>
       <c r="L329" s="105">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="M329" s="107" t="str">
+        <f t="shared" si="56"/>
+        <v>X</v>
+      </c>
+      <c r="N329" s="99" t="str">
         <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-      <c r="N329" s="99" t="str">
-        <f t="shared" si="58"/>
         <v>X</v>
       </c>
     </row>
@@ -18555,15 +18555,15 @@
         <v>403</v>
       </c>
       <c r="L330" s="105">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="M330" s="107" t="str">
+        <f t="shared" si="56"/>
+        <v>X</v>
+      </c>
+      <c r="N330" s="99" t="str">
         <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-      <c r="N330" s="99" t="str">
-        <f t="shared" si="58"/>
         <v>X</v>
       </c>
     </row>
@@ -18596,15 +18596,15 @@
         <v>403</v>
       </c>
       <c r="L331" s="105">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="M331" s="107" t="str">
+        <f t="shared" si="56"/>
+        <v>X</v>
+      </c>
+      <c r="N331" s="99" t="str">
         <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-      <c r="N331" s="99" t="str">
-        <f t="shared" si="58"/>
         <v>X</v>
       </c>
     </row>
@@ -18637,15 +18637,15 @@
         <v>403</v>
       </c>
       <c r="L332" s="105">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="M332" s="100" t="str">
+        <f t="shared" si="56"/>
+        <v>X</v>
+      </c>
+      <c r="N332" s="99" t="str">
         <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-      <c r="N332" s="99" t="str">
-        <f t="shared" si="58"/>
         <v>X</v>
       </c>
     </row>
@@ -18678,15 +18678,15 @@
         <v>403</v>
       </c>
       <c r="L333" s="105">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="M333" s="100" t="str">
+        <f t="shared" si="56"/>
+        <v>X</v>
+      </c>
+      <c r="N333" s="99" t="str">
         <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-      <c r="N333" s="99" t="str">
-        <f t="shared" si="58"/>
         <v>X</v>
       </c>
     </row>
@@ -18719,15 +18719,15 @@
         <v>403</v>
       </c>
       <c r="L334" s="105">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="M334" s="100" t="str">
+        <f t="shared" si="56"/>
+        <v>X</v>
+      </c>
+      <c r="N334" s="99" t="str">
         <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-      <c r="N334" s="99" t="str">
-        <f t="shared" si="58"/>
         <v>X</v>
       </c>
     </row>
@@ -18760,15 +18760,15 @@
         <v>403</v>
       </c>
       <c r="L335" s="105">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="M335" s="100" t="str">
+        <f t="shared" si="56"/>
+        <v>X</v>
+      </c>
+      <c r="N335" s="99" t="str">
         <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-      <c r="N335" s="99" t="str">
-        <f t="shared" si="58"/>
         <v>X</v>
       </c>
     </row>
@@ -18801,15 +18801,15 @@
         <v>403</v>
       </c>
       <c r="L336" s="105">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="M336" s="100" t="str">
+        <f t="shared" si="56"/>
+        <v>X</v>
+      </c>
+      <c r="N336" s="99" t="str">
         <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-      <c r="N336" s="99" t="str">
-        <f t="shared" si="58"/>
         <v>X</v>
       </c>
     </row>
@@ -18842,15 +18842,15 @@
         <v>403</v>
       </c>
       <c r="L337" s="105">
-        <f t="shared" ref="L337" si="60">IF(K337="Public",1,IF(K337="FOUO",2,IF(K337="Sensitive",3,IF(K337="System-Only",4))))</f>
+        <f t="shared" ref="L337" si="59">IF(K337="Public",1,IF(K337="FOUO",2,IF(K337="Sensitive",3,IF(K337="System-Only",4))))</f>
         <v>1</v>
       </c>
       <c r="M337" s="100" t="str">
+        <f t="shared" si="56"/>
+        <v>X</v>
+      </c>
+      <c r="N337" s="99" t="str">
         <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-      <c r="N337" s="99" t="str">
-        <f t="shared" si="58"/>
         <v>X</v>
       </c>
     </row>
@@ -18888,12 +18888,17 @@
         <v>1</v>
       </c>
       <c r="M338" s="101" t="str">
+        <f t="shared" si="56"/>
+        <v>X</v>
+      </c>
+      <c r="N338" s="101" t="str">
         <f t="shared" si="57"/>
         <v>X</v>
       </c>
-      <c r="N338" s="101" t="str">
-        <f t="shared" si="58"/>
-        <v>X</v>
+    </row>
+    <row r="340" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A340" s="1" t="s">
+        <v>875</v>
       </c>
     </row>
   </sheetData>
@@ -18904,12 +18909,12 @@
     <mergeCell ref="A2:N2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="N321:N337 M332:M337 M338:N338 M5:N5 M176:N176 M184:N185 M8:N174 M197:N205 M207:N331 M187:N195">
+  <conditionalFormatting sqref="N320:N337 M332:M337 M338:N338 M5:N5 M176:N176 M184:N185 M8:N174 M197:N205 M187:N195 M207:N331">
     <cfRule type="expression" dxfId="13" priority="32">
       <formula>(M5="X")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N321:N337 M338:N338 M332:M337 M5:N5 M176:N176 M184:N185 M8:N174 M197:N205 M207:N331 M187:N195">
+  <conditionalFormatting sqref="N320:N337 M338:N338 M332:M337 M5:N5 M176:N176 M184:N185 M8:N174 M197:N205 M187:N195 M207:N331">
     <cfRule type="cellIs" dxfId="12" priority="31" operator="equal">
       <formula>"CSV Only"</formula>
     </cfRule>
@@ -18974,8 +18979,8 @@
       <formula>"CSV Only"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H197:H204 H207:H338 H8:H185 H187:H194" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H197:H204 H8:H185 H187:H194 H207:H338" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>MandatoryOptional</formula1>
     </dataValidation>
   </dataValidations>

--- a/_apidocs/sam-entity-extracts-api/v1/SAM Master Extract Mapping v6.0 FOUO File V2 Layout.xlsx
+++ b/_apidocs/sam-entity-extracts-api/v1/SAM Master Extract Mapping v6.0 FOUO File V2 Layout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RafaelVILLAVICENCIO\Desktop\INT050 New Spec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BhargavBoppana\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C523C8A-6BCA-4B15-8856-1F4C8DA0FC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEC78F7-96F5-456D-AF63-08AFA3F5386E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="2688" windowWidth="16584" windowHeight="9468" tabRatio="775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Element Mapping" sheetId="4" r:id="rId1"/>
@@ -3332,7 +3332,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3720,9 +3720,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4289,79 +4286,79 @@
   <sheetPr codeName="Sheet2">
     <tabColor indexed="18"/>
   </sheetPr>
-  <dimension ref="A1:O340"/>
+  <dimension ref="A1:N340"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="J203" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N194" sqref="N194"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="65.08984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="65.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="23" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.08984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="53" style="4" customWidth="1"/>
     <col min="7" max="7" width="59" style="4" customWidth="1"/>
-    <col min="8" max="8" width="31.453125" style="50" customWidth="1"/>
-    <col min="9" max="9" width="34.36328125" style="83" customWidth="1"/>
-    <col min="10" max="10" width="50.90625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6328125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="9.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.36328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="31.44140625" style="50" customWidth="1"/>
+    <col min="9" max="9" width="34.33203125" style="83" customWidth="1"/>
+    <col min="10" max="10" width="50.88671875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="148" t="s">
+    <row r="2" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="147" t="s">
         <v>642</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="150"/>
-    </row>
-    <row r="3" spans="1:15" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="149"/>
+    </row>
+    <row r="3" spans="1:14" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>519</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>638</v>
       </c>
-      <c r="C3" s="143" t="s">
+      <c r="C3" s="142" t="s">
         <v>714</v>
       </c>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="145" t="s">
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="144" t="s">
         <v>389</v>
       </c>
-      <c r="L3" s="146"/>
-      <c r="M3" s="146"/>
-      <c r="N3" s="147"/>
-    </row>
-    <row r="4" spans="1:15" ht="26" x14ac:dyDescent="0.35">
+      <c r="L3" s="145"/>
+      <c r="M3" s="145"/>
+      <c r="N3" s="146"/>
+    </row>
+    <row r="4" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>641</v>
       </c>
@@ -4405,7 +4402,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>869</v>
       </c>
@@ -4448,7 +4445,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="129" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" s="129" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="121" t="s">
         <v>852</v>
       </c>
@@ -4487,9 +4484,8 @@
         <f t="shared" ref="N6:N7" si="1">IF(L6&lt;=2,"X","")</f>
         <v>X</v>
       </c>
-      <c r="O6"/>
-    </row>
-    <row r="7" spans="1:15" ht="25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A7" s="130" t="s">
         <v>788</v>
       </c>
@@ -4533,7 +4529,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>536</v>
       </c>
@@ -4575,7 +4571,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>311</v>
       </c>
@@ -4619,7 +4615,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="162.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="162.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>537</v>
       </c>
@@ -4663,7 +4659,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>538</v>
       </c>
@@ -4707,7 +4703,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>685</v>
       </c>
@@ -4749,7 +4745,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="71.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>817</v>
       </c>
@@ -4791,7 +4787,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>539</v>
       </c>
@@ -4833,7 +4829,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>540</v>
       </c>
@@ -4875,7 +4871,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>541</v>
       </c>
@@ -4917,7 +4913,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>456</v>
       </c>
@@ -4959,7 +4955,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>820</v>
       </c>
@@ -5001,7 +4997,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>789</v>
       </c>
@@ -5043,7 +5039,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>706</v>
       </c>
@@ -5085,7 +5081,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>707</v>
       </c>
@@ -5127,7 +5123,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>705</v>
       </c>
@@ -5169,7 +5165,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>708</v>
       </c>
@@ -5213,7 +5209,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>709</v>
       </c>
@@ -5257,7 +5253,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>710</v>
       </c>
@@ -5301,7 +5297,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
         <v>711</v>
       </c>
@@ -5343,7 +5339,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>790</v>
       </c>
@@ -5387,7 +5383,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A28" s="111" t="s">
         <v>818</v>
       </c>
@@ -5430,7 +5426,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
         <v>791</v>
       </c>
@@ -5472,7 +5468,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
         <v>542</v>
       </c>
@@ -5514,7 +5510,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="50" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
         <v>821</v>
       </c>
@@ -5558,7 +5554,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="50" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
         <v>543</v>
       </c>
@@ -5602,7 +5598,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
         <v>792</v>
       </c>
@@ -5644,7 +5640,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="100" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
         <v>544</v>
       </c>
@@ -5688,7 +5684,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
         <v>545</v>
       </c>
@@ -5732,7 +5728,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
         <v>546</v>
       </c>
@@ -5774,7 +5770,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
         <v>306</v>
       </c>
@@ -5817,7 +5813,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="39" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>202</v>
       </c>
@@ -5863,7 +5859,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="52" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
         <v>547</v>
       </c>
@@ -5907,7 +5903,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
         <v>548</v>
       </c>
@@ -5949,7 +5945,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A41" s="22" t="s">
         <v>457</v>
       </c>
@@ -5992,7 +5988,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="39" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A42" s="22" t="s">
         <v>418</v>
       </c>
@@ -6038,7 +6034,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A43" s="22" t="s">
         <v>458</v>
       </c>
@@ -6081,7 +6077,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="39" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A44" s="22" t="s">
         <v>203</v>
       </c>
@@ -6127,7 +6123,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="22" t="s">
         <v>549</v>
       </c>
@@ -6169,7 +6165,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A46" s="22" t="s">
         <v>459</v>
       </c>
@@ -6213,7 +6209,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A47" s="22" t="s">
         <v>550</v>
       </c>
@@ -6255,7 +6251,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A48" s="22" t="s">
         <v>551</v>
       </c>
@@ -6297,7 +6293,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A49" s="22" t="s">
         <v>552</v>
       </c>
@@ -6339,7 +6335,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A50" s="22" t="s">
         <v>553</v>
       </c>
@@ -6383,7 +6379,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A51" s="22" t="s">
         <v>554</v>
       </c>
@@ -6425,7 +6421,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A52" s="22" t="s">
         <v>555</v>
       </c>
@@ -6467,7 +6463,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A53" s="22" t="s">
         <v>556</v>
       </c>
@@ -6511,7 +6507,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
         <v>217</v>
       </c>
@@ -6554,7 +6550,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
         <v>312</v>
       </c>
@@ -6597,7 +6593,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A56" s="22" t="s">
         <v>313</v>
       </c>
@@ -6640,7 +6636,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A57" s="22" t="s">
         <v>314</v>
       </c>
@@ -6683,7 +6679,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A58" s="22" t="s">
         <v>218</v>
       </c>
@@ -6726,7 +6722,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A59" s="22" t="s">
         <v>219</v>
       </c>
@@ -6769,7 +6765,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A60" s="22" t="s">
         <v>220</v>
       </c>
@@ -6812,7 +6808,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A61" s="22" t="s">
         <v>221</v>
       </c>
@@ -6857,7 +6853,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A62" s="22" t="s">
         <v>315</v>
       </c>
@@ -6900,7 +6896,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A63" s="22" t="s">
         <v>222</v>
       </c>
@@ -6943,7 +6939,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A64" s="22" t="s">
         <v>223</v>
       </c>
@@ -6988,7 +6984,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A65" s="22" t="s">
         <v>224</v>
       </c>
@@ -7033,7 +7029,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A66" s="22" t="s">
         <v>225</v>
       </c>
@@ -7076,7 +7072,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A67" s="22" t="s">
         <v>226</v>
       </c>
@@ -7121,7 +7117,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A68" s="22" t="s">
         <v>227</v>
       </c>
@@ -7164,7 +7160,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A69" s="22" t="s">
         <v>228</v>
       </c>
@@ -7207,7 +7203,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A70" s="22" t="s">
         <v>229</v>
       </c>
@@ -7250,7 +7246,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A71" s="22" t="s">
         <v>316</v>
       </c>
@@ -7293,7 +7289,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A72" s="22" t="s">
         <v>317</v>
       </c>
@@ -7336,7 +7332,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A73" s="22" t="s">
         <v>318</v>
       </c>
@@ -7379,7 +7375,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A74" s="22" t="s">
         <v>230</v>
       </c>
@@ -7422,7 +7418,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A75" s="22" t="s">
         <v>231</v>
       </c>
@@ -7465,7 +7461,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A76" s="22" t="s">
         <v>232</v>
       </c>
@@ -7508,7 +7504,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A77" s="22" t="s">
         <v>233</v>
       </c>
@@ -7553,7 +7549,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A78" s="22" t="s">
         <v>319</v>
       </c>
@@ -7596,7 +7592,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A79" s="22" t="s">
         <v>234</v>
       </c>
@@ -7639,7 +7635,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A80" s="22" t="s">
         <v>235</v>
       </c>
@@ -7684,7 +7680,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A81" s="22" t="s">
         <v>236</v>
       </c>
@@ -7729,7 +7725,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A82" s="22" t="s">
         <v>237</v>
       </c>
@@ -7772,7 +7768,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A83" s="22" t="s">
         <v>238</v>
       </c>
@@ -7817,7 +7813,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A84" s="22" t="s">
         <v>239</v>
       </c>
@@ -7860,7 +7856,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A85" s="22" t="s">
         <v>240</v>
       </c>
@@ -7903,7 +7899,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A86" s="22" t="s">
         <v>241</v>
       </c>
@@ -7946,7 +7942,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A87" s="22" t="s">
         <v>320</v>
       </c>
@@ -7989,7 +7985,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A88" s="22" t="s">
         <v>321</v>
       </c>
@@ -8032,7 +8028,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A89" s="22" t="s">
         <v>322</v>
       </c>
@@ -8075,7 +8071,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A90" s="22" t="s">
         <v>242</v>
       </c>
@@ -8118,7 +8114,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A91" s="22" t="s">
         <v>243</v>
       </c>
@@ -8161,7 +8157,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A92" s="22" t="s">
         <v>244</v>
       </c>
@@ -8204,7 +8200,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A93" s="22" t="s">
         <v>245</v>
       </c>
@@ -8249,7 +8245,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A94" s="22" t="s">
         <v>323</v>
       </c>
@@ -8292,7 +8288,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A95" s="22" t="s">
         <v>246</v>
       </c>
@@ -8335,7 +8331,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A96" s="22" t="s">
         <v>247</v>
       </c>
@@ -8380,7 +8376,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A97" s="22" t="s">
         <v>248</v>
       </c>
@@ -8425,7 +8421,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A98" s="22" t="s">
         <v>249</v>
       </c>
@@ -8468,7 +8464,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A99" s="22" t="s">
         <v>250</v>
       </c>
@@ -8513,7 +8509,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A100" s="22" t="s">
         <v>251</v>
       </c>
@@ -8556,7 +8552,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A101" s="22" t="s">
         <v>252</v>
       </c>
@@ -8599,7 +8595,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A102" s="22" t="s">
         <v>253</v>
       </c>
@@ -8642,7 +8638,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A103" s="22" t="s">
         <v>324</v>
       </c>
@@ -8685,7 +8681,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A104" s="22" t="s">
         <v>325</v>
       </c>
@@ -8728,7 +8724,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A105" s="22" t="s">
         <v>326</v>
       </c>
@@ -8771,7 +8767,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A106" s="22" t="s">
         <v>254</v>
       </c>
@@ -8814,7 +8810,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A107" s="22" t="s">
         <v>255</v>
       </c>
@@ -8857,7 +8853,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A108" s="22" t="s">
         <v>256</v>
       </c>
@@ -8900,7 +8896,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A109" s="22" t="s">
         <v>257</v>
       </c>
@@ -8945,7 +8941,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A110" s="22" t="s">
         <v>327</v>
       </c>
@@ -8988,7 +8984,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A111" s="22" t="s">
         <v>258</v>
       </c>
@@ -9031,7 +9027,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A112" s="22" t="s">
         <v>259</v>
       </c>
@@ -9076,7 +9072,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A113" s="22" t="s">
         <v>260</v>
       </c>
@@ -9121,7 +9117,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A114" s="22" t="s">
         <v>261</v>
       </c>
@@ -9164,7 +9160,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A115" s="22" t="s">
         <v>262</v>
       </c>
@@ -9209,7 +9205,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A116" s="22" t="s">
         <v>263</v>
       </c>
@@ -9252,7 +9248,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A117" s="22" t="s">
         <v>264</v>
       </c>
@@ -9295,7 +9291,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A118" s="22" t="s">
         <v>265</v>
       </c>
@@ -9338,7 +9334,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A119" s="22" t="s">
         <v>328</v>
       </c>
@@ -9381,7 +9377,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A120" s="22" t="s">
         <v>329</v>
       </c>
@@ -9424,7 +9420,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A121" s="22" t="s">
         <v>330</v>
       </c>
@@ -9467,7 +9463,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A122" s="22" t="s">
         <v>266</v>
       </c>
@@ -9510,7 +9506,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A123" s="22" t="s">
         <v>267</v>
       </c>
@@ -9553,7 +9549,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A124" s="22" t="s">
         <v>268</v>
       </c>
@@ -9596,7 +9592,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A125" s="22" t="s">
         <v>269</v>
       </c>
@@ -9641,7 +9637,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A126" s="22" t="s">
         <v>331</v>
       </c>
@@ -9684,7 +9680,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A127" s="22" t="s">
         <v>270</v>
       </c>
@@ -9727,7 +9723,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A128" s="22" t="s">
         <v>271</v>
       </c>
@@ -9772,7 +9768,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A129" s="22" t="s">
         <v>272</v>
       </c>
@@ -9817,7 +9813,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A130" s="22" t="s">
         <v>273</v>
       </c>
@@ -9860,7 +9856,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A131" s="22" t="s">
         <v>274</v>
       </c>
@@ -9905,7 +9901,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A132" s="22" t="s">
         <v>275</v>
       </c>
@@ -9948,7 +9944,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A133" s="22" t="s">
         <v>276</v>
       </c>
@@ -9991,7 +9987,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A134" s="22" t="s">
         <v>277</v>
       </c>
@@ -10034,7 +10030,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A135" s="22" t="s">
         <v>332</v>
       </c>
@@ -10077,7 +10073,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A136" s="22" t="s">
         <v>333</v>
       </c>
@@ -10120,7 +10116,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A137" s="22" t="s">
         <v>334</v>
       </c>
@@ -10163,7 +10159,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A138" s="22" t="s">
         <v>278</v>
       </c>
@@ -10206,7 +10202,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A139" s="22" t="s">
         <v>279</v>
       </c>
@@ -10249,7 +10245,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A140" s="22" t="s">
         <v>280</v>
       </c>
@@ -10292,7 +10288,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A141" s="22" t="s">
         <v>281</v>
       </c>
@@ -10337,7 +10333,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A142" s="22" t="s">
         <v>335</v>
       </c>
@@ -10380,7 +10376,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="143" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A143" s="22" t="s">
         <v>282</v>
       </c>
@@ -10423,7 +10419,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="144" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A144" s="22" t="s">
         <v>283</v>
       </c>
@@ -10468,7 +10464,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A145" s="22" t="s">
         <v>284</v>
       </c>
@@ -10513,7 +10509,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A146" s="22" t="s">
         <v>285</v>
       </c>
@@ -10556,7 +10552,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A147" s="22" t="s">
         <v>286</v>
       </c>
@@ -10601,7 +10597,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A148" s="22" t="s">
         <v>287</v>
       </c>
@@ -10644,7 +10640,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A149" s="22" t="s">
         <v>288</v>
       </c>
@@ -10687,7 +10683,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" s="22" t="s">
         <v>289</v>
       </c>
@@ -10730,7 +10726,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" s="22" t="s">
         <v>336</v>
       </c>
@@ -10773,7 +10769,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" s="22" t="s">
         <v>337</v>
       </c>
@@ -10816,7 +10812,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" s="22" t="s">
         <v>338</v>
       </c>
@@ -10859,7 +10855,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" s="22" t="s">
         <v>339</v>
       </c>
@@ -10902,7 +10898,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" s="22" t="s">
         <v>340</v>
       </c>
@@ -10945,7 +10941,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" s="22" t="s">
         <v>341</v>
       </c>
@@ -10988,7 +10984,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" s="22" t="s">
         <v>342</v>
       </c>
@@ -11033,7 +11029,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" s="22" t="s">
         <v>343</v>
       </c>
@@ -11076,7 +11072,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" s="22" t="s">
         <v>344</v>
       </c>
@@ -11119,7 +11115,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" s="22" t="s">
         <v>345</v>
       </c>
@@ -11164,7 +11160,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" s="22" t="s">
         <v>290</v>
       </c>
@@ -11209,7 +11205,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" s="22" t="s">
         <v>291</v>
       </c>
@@ -11252,7 +11248,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" s="22" t="s">
         <v>292</v>
       </c>
@@ -11297,7 +11293,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" s="22" t="s">
         <v>293</v>
       </c>
@@ -11340,7 +11336,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" s="22" t="s">
         <v>294</v>
       </c>
@@ -11383,7 +11379,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="166" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A166" s="22" t="s">
         <v>295</v>
       </c>
@@ -11426,7 +11422,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="167" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A167" s="22" t="s">
         <v>346</v>
       </c>
@@ -11469,7 +11465,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A168" s="22" t="s">
         <v>347</v>
       </c>
@@ -11512,7 +11508,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="169" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A169" s="22" t="s">
         <v>348</v>
       </c>
@@ -11555,7 +11551,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A170" s="22" t="s">
         <v>296</v>
       </c>
@@ -11600,7 +11596,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A171" s="22" t="s">
         <v>297</v>
       </c>
@@ -11643,7 +11639,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A172" s="22" t="s">
         <v>298</v>
       </c>
@@ -11688,7 +11684,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="173" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A173" s="22" t="s">
         <v>299</v>
       </c>
@@ -11731,7 +11727,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A174" s="22" t="s">
         <v>300</v>
       </c>
@@ -11774,7 +11770,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="175" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A175" s="20" t="s">
         <v>823</v>
       </c>
@@ -11817,7 +11813,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="176" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A176" s="20" t="s">
         <v>871</v>
       </c>
@@ -11860,7 +11856,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="26" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A177" s="20" t="s">
         <v>825</v>
       </c>
@@ -11903,7 +11899,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="26" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A178" s="20" t="s">
         <v>827</v>
       </c>
@@ -11946,7 +11942,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="25" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A179" s="20" t="s">
         <v>829</v>
       </c>
@@ -11989,7 +11985,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="26" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A180" s="20" t="s">
         <v>831</v>
       </c>
@@ -12032,7 +12028,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="26" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A181" s="20" t="s">
         <v>833</v>
       </c>
@@ -12075,7 +12071,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="26" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A182" s="20" t="s">
         <v>835</v>
       </c>
@@ -12118,7 +12114,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="26" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A183" s="20" t="s">
         <v>837</v>
       </c>
@@ -12161,7 +12157,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="25" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A184" s="22" t="s">
         <v>808</v>
       </c>
@@ -12206,7 +12202,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="25" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A185" s="20" t="s">
         <v>872</v>
       </c>
@@ -12249,29 +12245,29 @@
         <v>X</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="26" x14ac:dyDescent="0.35">
-      <c r="A186" s="140" t="s">
+    <row r="186" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A186" s="139" t="s">
         <v>852</v>
       </c>
-      <c r="B186" s="139">
+      <c r="B186" s="138">
         <v>182</v>
       </c>
-      <c r="C186" s="139" t="s">
+      <c r="C186" s="138" t="s">
         <v>396</v>
       </c>
       <c r="D186" s="122" t="s">
         <v>396</v>
       </c>
-      <c r="E186" s="139">
+      <c r="E186" s="138">
         <v>0</v>
       </c>
       <c r="F186" s="123" t="s">
         <v>867</v>
       </c>
-      <c r="G186" s="140"/>
+      <c r="G186" s="139"/>
       <c r="H186" s="125"/>
-      <c r="I186" s="141"/>
-      <c r="J186" s="142" t="s">
+      <c r="I186" s="140"/>
+      <c r="J186" s="141" t="s">
         <v>858</v>
       </c>
       <c r="K186" s="130" t="s">
@@ -12289,12 +12285,8 @@
         <f t="shared" ref="N186" si="30">IF(L186&lt;=2,"X","")</f>
         <v>X</v>
       </c>
-      <c r="O186" s="137" t="str">
-        <f t="shared" ref="O186" si="31">IF(L186&lt;=3,"X","")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" ht="25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="187" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A187" s="22" t="s">
         <v>809</v>
       </c>
@@ -12339,7 +12331,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="25" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A188" s="22" t="s">
         <v>810</v>
       </c>
@@ -12384,7 +12376,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="25" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A189" s="22" t="s">
         <v>811</v>
       </c>
@@ -12429,7 +12421,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="25" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A190" s="22" t="s">
         <v>812</v>
       </c>
@@ -12474,7 +12466,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="25" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A191" s="22" t="s">
         <v>813</v>
       </c>
@@ -12519,7 +12511,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="25" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A192" s="22" t="s">
         <v>814</v>
       </c>
@@ -12552,7 +12544,7 @@
         <v>398</v>
       </c>
       <c r="L192" s="25">
-        <f t="shared" ref="L192:L213" si="32">IF(K192="Public",1,IF(K192="FOUO",2,IF(K192="Sensitive",3,IF(K192="System-Only",4))))</f>
+        <f t="shared" ref="L192:L213" si="31">IF(K192="Public",1,IF(K192="FOUO",2,IF(K192="Sensitive",3,IF(K192="System-Only",4))))</f>
         <v>2</v>
       </c>
       <c r="M192" s="21" t="str">
@@ -12564,7 +12556,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="25" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A193" s="22" t="s">
         <v>815</v>
       </c>
@@ -12597,7 +12589,7 @@
         <v>398</v>
       </c>
       <c r="L193" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="M193" s="21" t="str">
@@ -12609,7 +12601,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A194" s="130" t="s">
         <v>859</v>
       </c>
@@ -12654,7 +12646,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="26" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A195" s="133" t="s">
         <v>873</v>
       </c>
@@ -12697,49 +12689,48 @@
         <v>X</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="26" x14ac:dyDescent="0.35">
-      <c r="A196" s="138" t="s">
+    <row r="196" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A196" s="137" t="s">
         <v>852</v>
       </c>
-      <c r="B196" s="139">
+      <c r="B196" s="138">
         <v>192</v>
       </c>
-      <c r="C196" s="139" t="s">
+      <c r="C196" s="138" t="s">
         <v>396</v>
       </c>
       <c r="D196" s="122" t="s">
         <v>396</v>
       </c>
-      <c r="E196" s="139">
+      <c r="E196" s="138">
         <v>0</v>
       </c>
       <c r="F196" s="123" t="s">
         <v>857</v>
       </c>
-      <c r="G196" s="140"/>
+      <c r="G196" s="139"/>
       <c r="H196" s="125"/>
-      <c r="I196" s="141"/>
-      <c r="J196" s="142" t="s">
+      <c r="I196" s="140"/>
+      <c r="J196" s="141" t="s">
         <v>858</v>
       </c>
       <c r="K196" s="130" t="s">
         <v>398</v>
       </c>
       <c r="L196" s="133">
-        <f t="shared" ref="L196" si="33">IF(K196="Public",1,IF(K196="FOUO",2,IF(K196="Sensitive",3,IF(K196="System-Only",4))))</f>
+        <f t="shared" ref="L196" si="32">IF(K196="Public",1,IF(K196="FOUO",2,IF(K196="Sensitive",3,IF(K196="System-Only",4))))</f>
         <v>2</v>
       </c>
       <c r="M196" s="136" t="str">
-        <f t="shared" ref="M196" si="34">IF(L196&lt;=1,"X","")</f>
+        <f t="shared" ref="M196" si="33">IF(L196&lt;=1,"X","")</f>
         <v/>
       </c>
       <c r="N196" s="136" t="str">
-        <f t="shared" ref="N196" si="35">IF(L196&lt;=2,"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="O196" s="137"/>
-    </row>
-    <row r="197" spans="1:15" ht="37.5" x14ac:dyDescent="0.35">
+        <f t="shared" ref="N196" si="34">IF(L196&lt;=2,"X","")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A197" s="130" t="s">
         <v>860</v>
       </c>
@@ -12772,7 +12763,7 @@
         <v>398</v>
       </c>
       <c r="L197" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="M197" s="21" t="str">
@@ -12784,7 +12775,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A198" s="130" t="s">
         <v>861</v>
       </c>
@@ -12817,7 +12808,7 @@
         <v>398</v>
       </c>
       <c r="L198" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="M198" s="21" t="str">
@@ -12829,7 +12820,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A199" s="130" t="s">
         <v>862</v>
       </c>
@@ -12862,7 +12853,7 @@
         <v>398</v>
       </c>
       <c r="L199" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="M199" s="21" t="str">
@@ -12874,7 +12865,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A200" s="130" t="s">
         <v>863</v>
       </c>
@@ -12907,7 +12898,7 @@
         <v>398</v>
       </c>
       <c r="L200" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="M200" s="21" t="str">
@@ -12919,7 +12910,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A201" s="130" t="s">
         <v>864</v>
       </c>
@@ -12952,7 +12943,7 @@
         <v>398</v>
       </c>
       <c r="L201" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="M201" s="21" t="str">
@@ -12964,7 +12955,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A202" s="130" t="s">
         <v>865</v>
       </c>
@@ -12997,7 +12988,7 @@
         <v>398</v>
       </c>
       <c r="L202" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="M202" s="21" t="str">
@@ -13009,7 +13000,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A203" s="130" t="s">
         <v>866</v>
       </c>
@@ -13042,7 +13033,7 @@
         <v>398</v>
       </c>
       <c r="L203" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="M203" s="21" t="str">
@@ -13054,7 +13045,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="25" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A204" s="22" t="s">
         <v>793</v>
       </c>
@@ -13099,7 +13090,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="26" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A205" s="25" t="s">
         <v>874</v>
       </c>
@@ -13142,52 +13133,48 @@
         <v>X</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="26" x14ac:dyDescent="0.35">
-      <c r="A206" s="138" t="s">
+    <row r="206" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A206" s="137" t="s">
         <v>852</v>
       </c>
-      <c r="B206" s="139">
+      <c r="B206" s="138">
         <v>202</v>
       </c>
-      <c r="C206" s="139" t="s">
+      <c r="C206" s="138" t="s">
         <v>396</v>
       </c>
       <c r="D206" s="122" t="s">
         <v>396</v>
       </c>
-      <c r="E206" s="139">
+      <c r="E206" s="138">
         <v>0</v>
       </c>
       <c r="F206" s="123" t="s">
         <v>857</v>
       </c>
-      <c r="G206" s="140"/>
+      <c r="G206" s="139"/>
       <c r="H206" s="125"/>
-      <c r="I206" s="141"/>
-      <c r="J206" s="142" t="s">
+      <c r="I206" s="140"/>
+      <c r="J206" s="141" t="s">
         <v>858</v>
       </c>
       <c r="K206" s="130" t="s">
         <v>398</v>
       </c>
       <c r="L206" s="133">
-        <f t="shared" ref="L206" si="36">IF(K206="Public",1,IF(K206="FOUO",2,IF(K206="Sensitive",3,IF(K206="System-Only",4))))</f>
+        <f t="shared" ref="L206" si="35">IF(K206="Public",1,IF(K206="FOUO",2,IF(K206="Sensitive",3,IF(K206="System-Only",4))))</f>
         <v>2</v>
       </c>
       <c r="M206" s="136" t="str">
-        <f t="shared" ref="M206" si="37">IF(L206&lt;=1,"X","")</f>
+        <f t="shared" ref="M206" si="36">IF(L206&lt;=1,"X","")</f>
         <v/>
       </c>
       <c r="N206" s="136" t="str">
-        <f t="shared" ref="N206" si="38">IF(L206&lt;=2,"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="O206" s="137" t="str">
-        <f t="shared" ref="O206" si="39">IF(L206&lt;=3,"X","")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="207" spans="1:15" ht="25" x14ac:dyDescent="0.35">
+        <f t="shared" ref="N206" si="37">IF(L206&lt;=2,"X","")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A207" s="22" t="s">
         <v>794</v>
       </c>
@@ -13220,7 +13207,7 @@
         <v>398</v>
       </c>
       <c r="L207" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="M207" s="21" t="str">
@@ -13232,7 +13219,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="25" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A208" s="22" t="s">
         <v>795</v>
       </c>
@@ -13265,7 +13252,7 @@
         <v>398</v>
       </c>
       <c r="L208" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="M208" s="21" t="str">
@@ -13277,7 +13264,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="209" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A209" s="22" t="s">
         <v>796</v>
       </c>
@@ -13310,7 +13297,7 @@
         <v>398</v>
       </c>
       <c r="L209" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="M209" s="21" t="str">
@@ -13322,7 +13309,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="210" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A210" s="22" t="s">
         <v>797</v>
       </c>
@@ -13355,19 +13342,19 @@
         <v>398</v>
       </c>
       <c r="L210" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="M210" s="21" t="str">
-        <f t="shared" ref="M210:M252" si="40">IF(L210&lt;=1,"X","")</f>
+        <f t="shared" ref="M210:M252" si="38">IF(L210&lt;=1,"X","")</f>
         <v/>
       </c>
       <c r="N210" s="86" t="str">
-        <f t="shared" ref="N210:N252" si="41">IF(L210&lt;=2,"X","")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="211" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+        <f t="shared" ref="N210:N252" si="39">IF(L210&lt;=2,"X","")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A211" s="22" t="s">
         <v>798</v>
       </c>
@@ -13400,19 +13387,19 @@
         <v>398</v>
       </c>
       <c r="L211" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="M211" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N211" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="212" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A212" s="22" t="s">
         <v>799</v>
       </c>
@@ -13445,19 +13432,19 @@
         <v>398</v>
       </c>
       <c r="L212" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="M212" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N212" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="213" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A213" s="22" t="s">
         <v>800</v>
       </c>
@@ -13490,19 +13477,19 @@
         <v>398</v>
       </c>
       <c r="L213" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="M213" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N213" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="214" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A214" s="102" t="s">
         <v>760</v>
       </c>
@@ -13538,15 +13525,15 @@
         <v>2</v>
       </c>
       <c r="M214" s="21" t="str">
-        <f t="shared" ref="M214" si="42">IF(L214&lt;=1,"X","")</f>
+        <f t="shared" ref="M214" si="40">IF(L214&lt;=1,"X","")</f>
         <v/>
       </c>
       <c r="N214" s="86" t="str">
-        <f t="shared" ref="N214" si="43">IF(L214&lt;=2,"X","")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" ref="N214" si="41">IF(L214&lt;=2,"X","")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" s="102" t="s">
         <v>761</v>
       </c>
@@ -13580,15 +13567,15 @@
         <v>2</v>
       </c>
       <c r="M215" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N215" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" s="102" t="s">
         <v>762</v>
       </c>
@@ -13622,15 +13609,15 @@
         <v>2</v>
       </c>
       <c r="M216" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N216" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" s="102" t="s">
         <v>763</v>
       </c>
@@ -13664,15 +13651,15 @@
         <v>2</v>
       </c>
       <c r="M217" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N217" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" s="102" t="s">
         <v>764</v>
       </c>
@@ -13706,15 +13693,15 @@
         <v>2</v>
       </c>
       <c r="M218" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N218" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" s="102" t="s">
         <v>765</v>
       </c>
@@ -13748,15 +13735,15 @@
         <v>2</v>
       </c>
       <c r="M219" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N219" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" s="102" t="s">
         <v>766</v>
       </c>
@@ -13790,15 +13777,15 @@
         <v>2</v>
       </c>
       <c r="M220" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N220" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" s="102" t="s">
         <v>767</v>
       </c>
@@ -13832,15 +13819,15 @@
         <v>2</v>
       </c>
       <c r="M221" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N221" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" s="102" t="s">
         <v>768</v>
       </c>
@@ -13874,15 +13861,15 @@
         <v>2</v>
       </c>
       <c r="M222" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N222" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" s="102" t="s">
         <v>769</v>
       </c>
@@ -13916,15 +13903,15 @@
         <v>2</v>
       </c>
       <c r="M223" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N223" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" s="102" t="s">
         <v>770</v>
       </c>
@@ -13958,15 +13945,15 @@
         <v>2</v>
       </c>
       <c r="M224" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N224" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225" s="22" t="s">
         <v>310</v>
       </c>
@@ -14000,15 +13987,15 @@
         <v>2</v>
       </c>
       <c r="M225" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N225" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" s="22" t="s">
         <v>557</v>
       </c>
@@ -14042,15 +14029,15 @@
         <v>2</v>
       </c>
       <c r="M226" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N226" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227" s="22" t="s">
         <v>558</v>
       </c>
@@ -14084,15 +14071,15 @@
         <v>2</v>
       </c>
       <c r="M227" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N227" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" s="22" t="s">
         <v>559</v>
       </c>
@@ -14126,15 +14113,15 @@
         <v>2</v>
       </c>
       <c r="M228" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N228" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" s="18" t="s">
         <v>560</v>
       </c>
@@ -14168,15 +14155,15 @@
         <v>2</v>
       </c>
       <c r="M229" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N229" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" s="18" t="s">
         <v>561</v>
       </c>
@@ -14210,15 +14197,15 @@
         <v>2</v>
       </c>
       <c r="M230" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N230" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" s="22" t="s">
         <v>360</v>
       </c>
@@ -14249,19 +14236,19 @@
         <v>398</v>
       </c>
       <c r="L231" s="25">
-        <f t="shared" ref="L231:L239" si="44">IF(K231="Public",1,IF(K231="FOUO",2,IF(K231="Sensitive",3,IF(K231="System-Only",4))))</f>
+        <f t="shared" ref="L231:L239" si="42">IF(K231="Public",1,IF(K231="FOUO",2,IF(K231="Sensitive",3,IF(K231="System-Only",4))))</f>
         <v>2</v>
       </c>
       <c r="M231" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N231" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" s="22" t="s">
         <v>361</v>
       </c>
@@ -14292,19 +14279,19 @@
         <v>398</v>
       </c>
       <c r="L232" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>2</v>
       </c>
       <c r="M232" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N232" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" s="22" t="s">
         <v>362</v>
       </c>
@@ -14335,19 +14322,19 @@
         <v>398</v>
       </c>
       <c r="L233" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>2</v>
       </c>
       <c r="M233" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N233" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" s="22" t="s">
         <v>363</v>
       </c>
@@ -14378,19 +14365,19 @@
         <v>398</v>
       </c>
       <c r="L234" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>2</v>
       </c>
       <c r="M234" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N234" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" s="22" t="s">
         <v>364</v>
       </c>
@@ -14423,19 +14410,19 @@
         <v>398</v>
       </c>
       <c r="L235" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>2</v>
       </c>
       <c r="M235" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N235" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" s="22" t="s">
         <v>365</v>
       </c>
@@ -14466,19 +14453,19 @@
         <v>398</v>
       </c>
       <c r="L236" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>2</v>
       </c>
       <c r="M236" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N236" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" s="22" t="s">
         <v>366</v>
       </c>
@@ -14511,19 +14498,19 @@
         <v>398</v>
       </c>
       <c r="L237" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>2</v>
       </c>
       <c r="M237" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N237" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" s="22" t="s">
         <v>367</v>
       </c>
@@ -14554,19 +14541,19 @@
         <v>398</v>
       </c>
       <c r="L238" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>2</v>
       </c>
       <c r="M238" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N238" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" s="22" t="s">
         <v>368</v>
       </c>
@@ -14597,19 +14584,19 @@
         <v>398</v>
       </c>
       <c r="L239" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>2</v>
       </c>
       <c r="M239" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N239" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A240" s="22" t="s">
         <v>562</v>
       </c>
@@ -14645,15 +14632,15 @@
         <v>2</v>
       </c>
       <c r="M240" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N240" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A241" s="22" t="s">
         <v>563</v>
       </c>
@@ -14689,15 +14676,15 @@
         <v>2</v>
       </c>
       <c r="M241" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N241" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" s="22" t="s">
         <v>443</v>
       </c>
@@ -14728,19 +14715,19 @@
         <v>398</v>
       </c>
       <c r="L242" s="25">
-        <f t="shared" ref="L242:L266" si="45">IF(K242="Public",1,IF(K242="FOUO",2,IF(K242="Sensitive",3,IF(K242="System-Only",4))))</f>
+        <f t="shared" ref="L242:L266" si="43">IF(K242="Public",1,IF(K242="FOUO",2,IF(K242="Sensitive",3,IF(K242="System-Only",4))))</f>
         <v>2</v>
       </c>
       <c r="M242" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N242" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" s="22" t="s">
         <v>445</v>
       </c>
@@ -14771,19 +14758,19 @@
         <v>398</v>
       </c>
       <c r="L243" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="M243" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N243" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" s="22" t="s">
         <v>444</v>
       </c>
@@ -14814,19 +14801,19 @@
         <v>398</v>
       </c>
       <c r="L244" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="M244" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N244" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245" s="22" t="s">
         <v>349</v>
       </c>
@@ -14857,19 +14844,19 @@
         <v>398</v>
       </c>
       <c r="L245" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="M245" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N245" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246" s="22" t="s">
         <v>301</v>
       </c>
@@ -14902,19 +14889,19 @@
         <v>398</v>
       </c>
       <c r="L246" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="M246" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N246" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247" s="22" t="s">
         <v>302</v>
       </c>
@@ -14945,19 +14932,19 @@
         <v>398</v>
       </c>
       <c r="L247" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="M247" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N247" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248" s="22" t="s">
         <v>303</v>
       </c>
@@ -14990,19 +14977,19 @@
         <v>398</v>
       </c>
       <c r="L248" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="M248" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N248" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249" s="22" t="s">
         <v>304</v>
       </c>
@@ -15033,19 +15020,19 @@
         <v>398</v>
       </c>
       <c r="L249" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="M249" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N249" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250" s="22" t="s">
         <v>305</v>
       </c>
@@ -15076,19 +15063,19 @@
         <v>398</v>
       </c>
       <c r="L250" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="M250" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N250" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251" s="22" t="s">
         <v>447</v>
       </c>
@@ -15119,19 +15106,19 @@
         <v>398</v>
       </c>
       <c r="L251" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="M251" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N251" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252" s="22" t="s">
         <v>449</v>
       </c>
@@ -15162,19 +15149,19 @@
         <v>398</v>
       </c>
       <c r="L252" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="M252" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N252" s="86" t="str">
-        <f t="shared" si="41"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="39"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253" s="22" t="s">
         <v>448</v>
       </c>
@@ -15205,19 +15192,19 @@
         <v>398</v>
       </c>
       <c r="L253" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
       <c r="M253" s="21" t="str">
-        <f t="shared" ref="M253:M277" si="46">IF(L253&lt;=1,"X","")</f>
+        <f t="shared" ref="M253:M277" si="44">IF(L253&lt;=1,"X","")</f>
         <v/>
       </c>
       <c r="N253" s="86" t="str">
-        <f t="shared" ref="N253:N277" si="47">IF(L253&lt;=2,"X","")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" ref="N253:N277" si="45">IF(L253&lt;=2,"X","")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254" s="22" t="s">
         <v>350</v>
       </c>
@@ -15248,19 +15235,19 @@
         <v>398</v>
       </c>
       <c r="L254" s="25">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="M254" s="21" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N254" s="86" t="str">
         <f t="shared" si="45"/>
-        <v>2</v>
-      </c>
-      <c r="M254" s="21" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="N254" s="86" t="str">
-        <f t="shared" si="47"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.35">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255" s="22" t="s">
         <v>351</v>
       </c>
@@ -15291,19 +15278,19 @@
         <v>398</v>
       </c>
       <c r="L255" s="25">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="M255" s="21" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N255" s="86" t="str">
         <f t="shared" si="45"/>
-        <v>2</v>
-      </c>
-      <c r="M255" s="21" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="N255" s="86" t="str">
-        <f t="shared" si="47"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.35">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256" s="22" t="s">
         <v>352</v>
       </c>
@@ -15334,19 +15321,19 @@
         <v>398</v>
       </c>
       <c r="L256" s="25">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="M256" s="21" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N256" s="86" t="str">
         <f t="shared" si="45"/>
-        <v>2</v>
-      </c>
-      <c r="M256" s="21" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="N256" s="86" t="str">
-        <f t="shared" si="47"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257" s="22" t="s">
         <v>450</v>
       </c>
@@ -15377,19 +15364,19 @@
         <v>398</v>
       </c>
       <c r="L257" s="25">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="M257" s="21" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N257" s="86" t="str">
         <f t="shared" si="45"/>
-        <v>2</v>
-      </c>
-      <c r="M257" s="21" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="N257" s="86" t="str">
-        <f t="shared" si="47"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258" s="22" t="s">
         <v>353</v>
       </c>
@@ -15422,19 +15409,19 @@
         <v>398</v>
       </c>
       <c r="L258" s="25">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="M258" s="21" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N258" s="86" t="str">
         <f t="shared" si="45"/>
-        <v>2</v>
-      </c>
-      <c r="M258" s="21" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="N258" s="86" t="str">
-        <f t="shared" si="47"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259" s="22" t="s">
         <v>354</v>
       </c>
@@ -15467,19 +15454,19 @@
         <v>398</v>
       </c>
       <c r="L259" s="25">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="M259" s="21" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N259" s="86" t="str">
         <f t="shared" si="45"/>
-        <v>2</v>
-      </c>
-      <c r="M259" s="21" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="N259" s="86" t="str">
-        <f t="shared" si="47"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260" s="22" t="s">
         <v>451</v>
       </c>
@@ -15510,19 +15497,19 @@
         <v>398</v>
       </c>
       <c r="L260" s="25">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="M260" s="21" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N260" s="86" t="str">
         <f t="shared" si="45"/>
-        <v>2</v>
-      </c>
-      <c r="M260" s="21" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="N260" s="86" t="str">
-        <f t="shared" si="47"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261" s="22" t="s">
         <v>355</v>
       </c>
@@ -15555,19 +15542,19 @@
         <v>398</v>
       </c>
       <c r="L261" s="25">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="M261" s="21" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N261" s="86" t="str">
         <f t="shared" si="45"/>
-        <v>2</v>
-      </c>
-      <c r="M261" s="21" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="N261" s="86" t="str">
-        <f t="shared" si="47"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262" s="22" t="s">
         <v>356</v>
       </c>
@@ -15600,19 +15587,19 @@
         <v>398</v>
       </c>
       <c r="L262" s="25">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="M262" s="21" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N262" s="86" t="str">
         <f t="shared" si="45"/>
-        <v>2</v>
-      </c>
-      <c r="M262" s="21" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="N262" s="86" t="str">
-        <f t="shared" si="47"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263" s="22" t="s">
         <v>357</v>
       </c>
@@ -15643,19 +15630,19 @@
         <v>398</v>
       </c>
       <c r="L263" s="25">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="M263" s="21" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N263" s="86" t="str">
         <f t="shared" si="45"/>
-        <v>2</v>
-      </c>
-      <c r="M263" s="21" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="N263" s="86" t="str">
-        <f t="shared" si="47"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264" s="22" t="s">
         <v>358</v>
       </c>
@@ -15688,19 +15675,19 @@
         <v>398</v>
       </c>
       <c r="L264" s="25">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="M264" s="21" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N264" s="86" t="str">
         <f t="shared" si="45"/>
-        <v>2</v>
-      </c>
-      <c r="M264" s="21" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="N264" s="86" t="str">
-        <f t="shared" si="47"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265" s="22" t="s">
         <v>359</v>
       </c>
@@ -15731,19 +15718,19 @@
         <v>398</v>
       </c>
       <c r="L265" s="25">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="M265" s="21" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N265" s="86" t="str">
         <f t="shared" si="45"/>
-        <v>2</v>
-      </c>
-      <c r="M265" s="21" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="N265" s="86" t="str">
-        <f t="shared" si="47"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266" s="22" t="s">
         <v>446</v>
       </c>
@@ -15774,19 +15761,19 @@
         <v>398</v>
       </c>
       <c r="L266" s="25">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="M266" s="21" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N266" s="86" t="str">
         <f t="shared" si="45"/>
-        <v>2</v>
-      </c>
-      <c r="M266" s="21" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="N266" s="86" t="str">
-        <f t="shared" si="47"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="267" spans="1:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="22" t="s">
         <v>307</v>
       </c>
@@ -15821,15 +15808,15 @@
         <v>1</v>
       </c>
       <c r="M267" s="21" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>X</v>
       </c>
       <c r="N267" s="86" t="str">
-        <f t="shared" si="47"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="268" spans="1:14" ht="56.15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="45"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="22" t="s">
         <v>564</v>
       </c>
@@ -15867,15 +15854,15 @@
         <v>1</v>
       </c>
       <c r="M268" s="21" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>X</v>
       </c>
       <c r="N268" s="86" t="str">
-        <f t="shared" si="47"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="269" spans="1:14" ht="62.5" x14ac:dyDescent="0.35">
+        <f t="shared" si="45"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A269" s="22" t="s">
         <v>715</v>
       </c>
@@ -15913,15 +15900,15 @@
         <v>1</v>
       </c>
       <c r="M269" s="21" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>X</v>
       </c>
       <c r="N269" s="86" t="str">
-        <f t="shared" si="47"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="270" spans="1:14" ht="59.4" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="45"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="22" t="s">
         <v>565</v>
       </c>
@@ -15955,15 +15942,15 @@
         <v>1</v>
       </c>
       <c r="M270" s="21" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>X</v>
       </c>
       <c r="N270" s="86" t="str">
-        <f t="shared" si="47"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="271" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+        <f t="shared" si="45"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A271" s="22" t="s">
         <v>308</v>
       </c>
@@ -15998,15 +15985,15 @@
         <v>1</v>
       </c>
       <c r="M271" s="21" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>X</v>
       </c>
       <c r="N271" s="86" t="str">
-        <f t="shared" si="47"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="272" spans="1:14" ht="59.4" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="45"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="18" t="s">
         <v>566</v>
       </c>
@@ -16044,15 +16031,15 @@
         <v>1</v>
       </c>
       <c r="M272" s="21" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>X</v>
       </c>
       <c r="N272" s="86" t="str">
-        <f t="shared" si="47"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="273" spans="1:14" ht="31.4" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="45"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" ht="31.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="22" t="s">
         <v>309</v>
       </c>
@@ -16087,15 +16074,15 @@
         <v>2</v>
       </c>
       <c r="M273" s="21" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N273" s="86" t="str">
-        <f t="shared" si="47"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="274" spans="1:14" ht="52" x14ac:dyDescent="0.35">
+        <f t="shared" si="45"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A274" s="18" t="s">
         <v>567</v>
       </c>
@@ -16133,15 +16120,15 @@
         <v>2</v>
       </c>
       <c r="M274" s="21" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N274" s="86" t="str">
-        <f t="shared" si="47"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="275" spans="1:14" ht="50" x14ac:dyDescent="0.35">
+        <f t="shared" si="45"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A275" s="22" t="s">
         <v>568</v>
       </c>
@@ -16179,15 +16166,15 @@
         <v>1</v>
       </c>
       <c r="M275" s="21" t="str">
-        <f t="shared" ref="M275" si="48">IF(L275&lt;=1,"X","")</f>
+        <f t="shared" ref="M275" si="46">IF(L275&lt;=1,"X","")</f>
         <v>X</v>
       </c>
       <c r="N275" s="86" t="str">
-        <f t="shared" ref="N275" si="49">IF(L275&lt;=2,"X","")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="276" spans="1:14" ht="39" x14ac:dyDescent="0.35">
+        <f t="shared" ref="N275" si="47">IF(L275&lt;=2,"X","")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A276" s="22" t="s">
         <v>460</v>
       </c>
@@ -16222,15 +16209,15 @@
         <v>1</v>
       </c>
       <c r="M276" s="21" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>X</v>
       </c>
       <c r="N276" s="86" t="str">
-        <f t="shared" si="47"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="277" spans="1:14" ht="52" x14ac:dyDescent="0.35">
+        <f t="shared" si="45"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A277" s="18" t="s">
         <v>414</v>
       </c>
@@ -16268,15 +16255,15 @@
         <v>1</v>
       </c>
       <c r="M277" s="21" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>X</v>
       </c>
       <c r="N277" s="86" t="str">
-        <f t="shared" si="47"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="278" spans="1:14" ht="39" x14ac:dyDescent="0.35">
+        <f t="shared" si="45"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A278" s="22" t="s">
         <v>569</v>
       </c>
@@ -16310,15 +16297,15 @@
         <v>2</v>
       </c>
       <c r="M278" s="21" t="str">
-        <f t="shared" ref="M278:M306" si="50">IF(L278&lt;=1,"X","")</f>
+        <f t="shared" ref="M278:M306" si="48">IF(L278&lt;=1,"X","")</f>
         <v/>
       </c>
       <c r="N278" s="86" t="str">
-        <f t="shared" ref="N278:N306" si="51">IF(L278&lt;=2,"X","")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="279" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+        <f t="shared" ref="N278:N306" si="49">IF(L278&lt;=2,"X","")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A279" s="22" t="s">
         <v>570</v>
       </c>
@@ -16356,15 +16343,15 @@
         <v>2</v>
       </c>
       <c r="M279" s="21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N279" s="86" t="str">
-        <f t="shared" si="51"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="280" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+        <f t="shared" si="49"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A280" s="22" t="s">
         <v>571</v>
       </c>
@@ -16398,15 +16385,15 @@
         <v>2</v>
       </c>
       <c r="M280" s="21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N280" s="86" t="str">
-        <f t="shared" si="51"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="281" spans="1:14" ht="52" x14ac:dyDescent="0.35">
+        <f t="shared" si="49"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A281" s="22" t="s">
         <v>572</v>
       </c>
@@ -16442,15 +16429,15 @@
         <v>2</v>
       </c>
       <c r="M281" s="21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N281" s="86" t="str">
-        <f t="shared" si="51"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="282" spans="1:14" ht="26" x14ac:dyDescent="0.35">
+        <f t="shared" si="49"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A282" s="22" t="s">
         <v>573</v>
       </c>
@@ -16486,15 +16473,15 @@
         <v>2</v>
       </c>
       <c r="M282" s="21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N282" s="86" t="str">
-        <f t="shared" si="51"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="283" spans="1:14" ht="39" x14ac:dyDescent="0.35">
+        <f t="shared" si="49"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A283" s="22" t="s">
         <v>574</v>
       </c>
@@ -16530,15 +16517,15 @@
         <v>2</v>
       </c>
       <c r="M283" s="21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N283" s="86" t="str">
-        <f t="shared" si="51"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="284" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+        <f t="shared" si="49"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A284" s="22" t="s">
         <v>575</v>
       </c>
@@ -16574,15 +16561,15 @@
         <v>2</v>
       </c>
       <c r="M284" s="21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N284" s="86" t="str">
-        <f t="shared" si="51"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="285" spans="1:14" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="49"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="22" t="s">
         <v>576</v>
       </c>
@@ -16618,15 +16605,15 @@
         <v>2</v>
       </c>
       <c r="M285" s="21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N285" s="86" t="str">
-        <f t="shared" si="51"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="49"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A286" s="22" t="s">
         <v>432</v>
       </c>
@@ -16657,19 +16644,19 @@
         <v>398</v>
       </c>
       <c r="L286" s="25">
-        <f t="shared" ref="L286:L314" si="52">IF(K286="Public",1,IF(K286="FOUO",2,IF(K286="Sensitive",3,IF(K286="System-Only",4))))</f>
+        <f t="shared" ref="L286:L314" si="50">IF(K286="Public",1,IF(K286="FOUO",2,IF(K286="Sensitive",3,IF(K286="System-Only",4))))</f>
         <v>2</v>
       </c>
       <c r="M286" s="21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N286" s="86" t="str">
-        <f t="shared" si="51"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="49"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A287" s="22" t="s">
         <v>434</v>
       </c>
@@ -16700,19 +16687,19 @@
         <v>398</v>
       </c>
       <c r="L287" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="M287" s="21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N287" s="86" t="str">
-        <f t="shared" si="51"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="49"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A288" s="22" t="s">
         <v>433</v>
       </c>
@@ -16743,19 +16730,19 @@
         <v>398</v>
       </c>
       <c r="L288" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="M288" s="21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N288" s="86" t="str">
-        <f t="shared" si="51"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="49"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A289" s="22" t="s">
         <v>369</v>
       </c>
@@ -16786,19 +16773,19 @@
         <v>398</v>
       </c>
       <c r="L289" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="M289" s="21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N289" s="86" t="str">
-        <f t="shared" si="51"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="49"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A290" s="22" t="s">
         <v>370</v>
       </c>
@@ -16829,19 +16816,19 @@
         <v>398</v>
       </c>
       <c r="L290" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="M290" s="21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N290" s="86" t="str">
-        <f t="shared" si="51"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="49"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A291" s="22" t="s">
         <v>371</v>
       </c>
@@ -16872,19 +16859,19 @@
         <v>398</v>
       </c>
       <c r="L291" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="M291" s="21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N291" s="86" t="str">
-        <f t="shared" si="51"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="49"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A292" s="22" t="s">
         <v>435</v>
       </c>
@@ -16915,19 +16902,19 @@
         <v>398</v>
       </c>
       <c r="L292" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="M292" s="21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N292" s="86" t="str">
-        <f t="shared" si="51"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="49"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A293" s="22" t="s">
         <v>372</v>
       </c>
@@ -16960,19 +16947,19 @@
         <v>398</v>
       </c>
       <c r="L293" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="M293" s="21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N293" s="86" t="str">
-        <f t="shared" si="51"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="49"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A294" s="22" t="s">
         <v>373</v>
       </c>
@@ -17003,19 +16990,19 @@
         <v>398</v>
       </c>
       <c r="L294" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="M294" s="21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N294" s="86" t="str">
-        <f t="shared" si="51"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="49"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A295" s="22" t="s">
         <v>436</v>
       </c>
@@ -17046,19 +17033,19 @@
         <v>398</v>
       </c>
       <c r="L295" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="M295" s="21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N295" s="86" t="str">
-        <f t="shared" si="51"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="49"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A296" s="22" t="s">
         <v>374</v>
       </c>
@@ -17091,19 +17078,19 @@
         <v>398</v>
       </c>
       <c r="L296" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="M296" s="21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N296" s="86" t="str">
-        <f t="shared" si="51"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="49"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A297" s="22" t="s">
         <v>375</v>
       </c>
@@ -17136,19 +17123,19 @@
         <v>398</v>
       </c>
       <c r="L297" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="M297" s="21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N297" s="86" t="str">
-        <f t="shared" si="51"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="49"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A298" s="22" t="s">
         <v>376</v>
       </c>
@@ -17179,19 +17166,19 @@
         <v>398</v>
       </c>
       <c r="L298" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="M298" s="21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N298" s="86" t="str">
-        <f t="shared" si="51"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="49"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A299" s="22" t="s">
         <v>377</v>
       </c>
@@ -17224,19 +17211,19 @@
         <v>398</v>
       </c>
       <c r="L299" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="M299" s="21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N299" s="86" t="str">
-        <f t="shared" si="51"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="49"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A300" s="22" t="s">
         <v>378</v>
       </c>
@@ -17267,19 +17254,19 @@
         <v>398</v>
       </c>
       <c r="L300" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="M300" s="21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N300" s="86" t="str">
-        <f t="shared" si="51"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="49"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A301" s="22" t="s">
         <v>431</v>
       </c>
@@ -17310,19 +17297,19 @@
         <v>398</v>
       </c>
       <c r="L301" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="M301" s="21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N301" s="86" t="str">
-        <f t="shared" si="51"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="49"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A302" s="22" t="s">
         <v>438</v>
       </c>
@@ -17353,19 +17340,19 @@
         <v>398</v>
       </c>
       <c r="L302" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="M302" s="21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N302" s="86" t="str">
-        <f t="shared" si="51"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="49"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A303" s="22" t="s">
         <v>440</v>
       </c>
@@ -17396,19 +17383,19 @@
         <v>398</v>
       </c>
       <c r="L303" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="M303" s="21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N303" s="86" t="str">
-        <f t="shared" si="51"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="49"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A304" s="22" t="s">
         <v>439</v>
       </c>
@@ -17439,19 +17426,19 @@
         <v>398</v>
       </c>
       <c r="L304" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="M304" s="21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N304" s="86" t="str">
-        <f t="shared" si="51"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="49"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A305" s="22" t="s">
         <v>379</v>
       </c>
@@ -17482,19 +17469,19 @@
         <v>398</v>
       </c>
       <c r="L305" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="M305" s="21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N305" s="86" t="str">
-        <f t="shared" si="51"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="49"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A306" s="22" t="s">
         <v>380</v>
       </c>
@@ -17525,19 +17512,19 @@
         <v>398</v>
       </c>
       <c r="L306" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="M306" s="21" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N306" s="86" t="str">
-        <f t="shared" si="51"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="49"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A307" s="22" t="s">
         <v>381</v>
       </c>
@@ -17568,19 +17555,19 @@
         <v>398</v>
       </c>
       <c r="L307" s="25">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>2</v>
       </c>
       <c r="M307" s="21" t="str">
-        <f t="shared" ref="M307:M317" si="53">IF(L307&lt;=1,"X","")</f>
+        <f t="shared" ref="M307:M317" si="51">IF(L307&lt;=1,"X","")</f>
         <v/>
       </c>
       <c r="N307" s="86" t="str">
-        <f t="shared" ref="N307:N317" si="54">IF(L307&lt;=2,"X","")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" ref="N307:N317" si="52">IF(L307&lt;=2,"X","")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A308" s="22" t="s">
         <v>441</v>
       </c>
@@ -17611,19 +17598,19 @@
         <v>398</v>
       </c>
       <c r="L308" s="25">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="M308" s="21" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="N308" s="86" t="str">
         <f t="shared" si="52"/>
-        <v>2</v>
-      </c>
-      <c r="M308" s="21" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="N308" s="86" t="str">
-        <f t="shared" si="54"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.35">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A309" s="22" t="s">
         <v>382</v>
       </c>
@@ -17656,19 +17643,19 @@
         <v>398</v>
       </c>
       <c r="L309" s="25">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="M309" s="21" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="N309" s="86" t="str">
         <f t="shared" si="52"/>
-        <v>2</v>
-      </c>
-      <c r="M309" s="21" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="N309" s="86" t="str">
-        <f t="shared" si="54"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.35">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A310" s="22" t="s">
         <v>383</v>
       </c>
@@ -17699,19 +17686,19 @@
         <v>398</v>
       </c>
       <c r="L310" s="25">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="M310" s="84" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="N310" s="87" t="str">
         <f t="shared" si="52"/>
-        <v>2</v>
-      </c>
-      <c r="M310" s="84" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="N310" s="87" t="str">
-        <f t="shared" si="54"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.35">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A311" s="22" t="s">
         <v>442</v>
       </c>
@@ -17742,19 +17729,19 @@
         <v>398</v>
       </c>
       <c r="L311" s="25">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="M311" s="21" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="N311" s="86" t="str">
         <f t="shared" si="52"/>
-        <v>2</v>
-      </c>
-      <c r="M311" s="21" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="N311" s="86" t="str">
-        <f t="shared" si="54"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.35">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A312" s="22" t="s">
         <v>384</v>
       </c>
@@ -17787,19 +17774,19 @@
         <v>398</v>
       </c>
       <c r="L312" s="25">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="M312" s="21" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="N312" s="86" t="str">
         <f t="shared" si="52"/>
-        <v>2</v>
-      </c>
-      <c r="M312" s="21" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="N312" s="86" t="str">
-        <f t="shared" si="54"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.35">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A313" s="22" t="s">
         <v>385</v>
       </c>
@@ -17832,19 +17819,19 @@
         <v>398</v>
       </c>
       <c r="L313" s="25">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="M313" s="21" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="N313" s="86" t="str">
         <f t="shared" si="52"/>
-        <v>2</v>
-      </c>
-      <c r="M313" s="21" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="N313" s="86" t="str">
-        <f t="shared" si="54"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.35">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A314" s="22" t="s">
         <v>386</v>
       </c>
@@ -17875,19 +17862,19 @@
         <v>398</v>
       </c>
       <c r="L314" s="25">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="M314" s="21" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="N314" s="86" t="str">
         <f t="shared" si="52"/>
-        <v>2</v>
-      </c>
-      <c r="M314" s="21" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="N314" s="86" t="str">
-        <f t="shared" si="54"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.35">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A315" s="22" t="s">
         <v>387</v>
       </c>
@@ -17920,19 +17907,19 @@
         <v>398</v>
       </c>
       <c r="L315" s="25">
-        <f t="shared" ref="L315:L318" si="55">IF(K315="Public",1,IF(K315="FOUO",2,IF(K315="Sensitive",3,IF(K315="System-Only",4))))</f>
+        <f t="shared" ref="L315:L318" si="53">IF(K315="Public",1,IF(K315="FOUO",2,IF(K315="Sensitive",3,IF(K315="System-Only",4))))</f>
         <v>2</v>
       </c>
       <c r="M315" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="N315" s="86" t="str">
-        <f t="shared" si="54"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="52"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A316" s="22" t="s">
         <v>388</v>
       </c>
@@ -17963,19 +17950,19 @@
         <v>398</v>
       </c>
       <c r="L316" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>2</v>
       </c>
       <c r="M316" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="N316" s="86" t="str">
-        <f t="shared" si="54"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="52"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A317" s="22" t="s">
         <v>437</v>
       </c>
@@ -18006,19 +17993,19 @@
         <v>398</v>
       </c>
       <c r="L317" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>2</v>
       </c>
       <c r="M317" s="21" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="N317" s="86" t="str">
-        <f t="shared" si="54"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="52"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A318" s="102" t="s">
         <v>841</v>
       </c>
@@ -18049,19 +18036,19 @@
         <v>403</v>
       </c>
       <c r="L318" s="105">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="M318" s="107" t="str">
-        <f t="shared" ref="M318:M338" si="56">IF(L318&lt;=1,"X","")</f>
+        <f t="shared" ref="M318:M338" si="54">IF(L318&lt;=1,"X","")</f>
         <v>X</v>
       </c>
       <c r="N318" s="99" t="str">
-        <f t="shared" ref="N318:N338" si="57">IF(L318&lt;=2,"X","")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="319" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+        <f t="shared" ref="N318:N338" si="55">IF(L318&lt;=2,"X","")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A319" s="102" t="s">
         <v>846</v>
       </c>
@@ -18094,19 +18081,19 @@
         <v>398</v>
       </c>
       <c r="L319" s="105">
-        <f t="shared" ref="L319:L336" si="58">IF(K319="Public",1,IF(K319="FOUO",2,IF(K319="Sensitive",3,IF(K319="System-Only",4))))</f>
+        <f t="shared" ref="L319:L336" si="56">IF(K319="Public",1,IF(K319="FOUO",2,IF(K319="Sensitive",3,IF(K319="System-Only",4))))</f>
         <v>2</v>
       </c>
       <c r="M319" s="107" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="N319" s="99" t="str">
-        <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="320" spans="1:14" ht="37.5" x14ac:dyDescent="0.35">
+        <f t="shared" si="55"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A320" s="102" t="s">
         <v>848</v>
       </c>
@@ -18139,19 +18126,19 @@
         <v>398</v>
       </c>
       <c r="L320" s="105">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>2</v>
       </c>
       <c r="M320" s="107" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="N320" s="99" t="str">
-        <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="321" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+        <f t="shared" si="55"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A321" s="102" t="s">
         <v>850</v>
       </c>
@@ -18184,19 +18171,19 @@
         <v>398</v>
       </c>
       <c r="L321" s="105">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>2</v>
       </c>
       <c r="M321" s="107" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="N321" s="99" t="str">
-        <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="322" spans="1:14" ht="25" x14ac:dyDescent="0.35">
+        <f t="shared" si="55"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A322" s="102" t="s">
         <v>844</v>
       </c>
@@ -18239,7 +18226,7 @@
         <v>X</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A323" s="102" t="s">
         <v>805</v>
       </c>
@@ -18268,19 +18255,19 @@
         <v>403</v>
       </c>
       <c r="L323" s="105">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="M323" s="107" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>X</v>
       </c>
       <c r="N323" s="99" t="str">
-        <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="55"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A324" s="102" t="s">
         <v>806</v>
       </c>
@@ -18309,19 +18296,19 @@
         <v>403</v>
       </c>
       <c r="L324" s="105">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="M324" s="107" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>X</v>
       </c>
       <c r="N324" s="99" t="str">
-        <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="55"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A325" s="102" t="s">
         <v>807</v>
       </c>
@@ -18350,19 +18337,19 @@
         <v>403</v>
       </c>
       <c r="L325" s="105">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="M325" s="107" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>X</v>
       </c>
       <c r="N325" s="99" t="str">
-        <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="55"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A326" s="102" t="s">
         <v>778</v>
       </c>
@@ -18391,19 +18378,19 @@
         <v>403</v>
       </c>
       <c r="L326" s="105">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="M326" s="107" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>X</v>
       </c>
       <c r="N326" s="99" t="str">
-        <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="55"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A327" s="102" t="s">
         <v>779</v>
       </c>
@@ -18432,19 +18419,19 @@
         <v>403</v>
       </c>
       <c r="L327" s="105">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="M327" s="107" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>X</v>
       </c>
       <c r="N327" s="99" t="str">
-        <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="55"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A328" s="102" t="s">
         <v>780</v>
       </c>
@@ -18473,19 +18460,19 @@
         <v>403</v>
       </c>
       <c r="L328" s="105">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="M328" s="107" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>X</v>
       </c>
       <c r="N328" s="99" t="str">
-        <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="55"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A329" s="102" t="s">
         <v>781</v>
       </c>
@@ -18514,19 +18501,19 @@
         <v>403</v>
       </c>
       <c r="L329" s="105">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="M329" s="107" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>X</v>
       </c>
       <c r="N329" s="99" t="str">
-        <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="55"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A330" s="102" t="s">
         <v>782</v>
       </c>
@@ -18555,19 +18542,19 @@
         <v>403</v>
       </c>
       <c r="L330" s="105">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="M330" s="107" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>X</v>
       </c>
       <c r="N330" s="99" t="str">
-        <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="55"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A331" s="102" t="s">
         <v>783</v>
       </c>
@@ -18596,19 +18583,19 @@
         <v>403</v>
       </c>
       <c r="L331" s="105">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="M331" s="107" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>X</v>
       </c>
       <c r="N331" s="99" t="str">
-        <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="55"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A332" s="102" t="s">
         <v>784</v>
       </c>
@@ -18637,19 +18624,19 @@
         <v>403</v>
       </c>
       <c r="L332" s="105">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="M332" s="100" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>X</v>
       </c>
       <c r="N332" s="99" t="str">
-        <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="55"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A333" s="102" t="s">
         <v>785</v>
       </c>
@@ -18678,19 +18665,19 @@
         <v>403</v>
       </c>
       <c r="L333" s="105">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="M333" s="100" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>X</v>
       </c>
       <c r="N333" s="99" t="str">
-        <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="55"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A334" s="102" t="s">
         <v>786</v>
       </c>
@@ -18719,19 +18706,19 @@
         <v>403</v>
       </c>
       <c r="L334" s="105">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="M334" s="100" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>X</v>
       </c>
       <c r="N334" s="99" t="str">
-        <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="55"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A335" s="102" t="s">
         <v>787</v>
       </c>
@@ -18760,19 +18747,19 @@
         <v>403</v>
       </c>
       <c r="L335" s="105">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="M335" s="100" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>X</v>
       </c>
       <c r="N335" s="99" t="str">
-        <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="55"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A336" s="102" t="s">
         <v>773</v>
       </c>
@@ -18801,19 +18788,19 @@
         <v>403</v>
       </c>
       <c r="L336" s="105">
-        <f t="shared" si="58"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="M336" s="100" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>X</v>
       </c>
       <c r="N336" s="99" t="str">
-        <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="55"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A337" s="102" t="s">
         <v>772</v>
       </c>
@@ -18842,19 +18829,19 @@
         <v>403</v>
       </c>
       <c r="L337" s="105">
-        <f t="shared" ref="L337" si="59">IF(K337="Public",1,IF(K337="FOUO",2,IF(K337="Sensitive",3,IF(K337="System-Only",4))))</f>
+        <f t="shared" ref="L337" si="57">IF(K337="Public",1,IF(K337="FOUO",2,IF(K337="Sensitive",3,IF(K337="System-Only",4))))</f>
         <v>1</v>
       </c>
       <c r="M337" s="100" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>X</v>
       </c>
       <c r="N337" s="99" t="str">
-        <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="338" spans="1:14" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+        <f t="shared" si="55"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A338" s="116" t="s">
         <v>577</v>
       </c>
@@ -18888,15 +18875,15 @@
         <v>1</v>
       </c>
       <c r="M338" s="101" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>X</v>
       </c>
       <c r="N338" s="101" t="str">
-        <f t="shared" si="57"/>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" si="55"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>875</v>
       </c>
@@ -18939,42 +18926,42 @@
       <formula>(M177="X")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6:O7">
+  <conditionalFormatting sqref="M6:N7">
     <cfRule type="expression" dxfId="7" priority="8">
       <formula>(M6="X")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6:O7">
+  <conditionalFormatting sqref="M6:N7">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"CSV Only"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M196:O196">
+  <conditionalFormatting sqref="M196:N196">
     <cfRule type="expression" dxfId="5" priority="6">
       <formula>(M196="X")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M196:O196">
+  <conditionalFormatting sqref="M196:N196">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"CSV Only"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M206:O206">
+  <conditionalFormatting sqref="M206:N206">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>(M206="X")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M206:O206">
+  <conditionalFormatting sqref="M206:N206">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"CSV Only"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M186:O186">
+  <conditionalFormatting sqref="M186:N186">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>(M186="X")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M186:O186">
+  <conditionalFormatting sqref="M186:N186">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"CSV Only"</formula>
     </cfRule>
@@ -18999,25 +18986,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="9"/>
-    <col min="2" max="2" width="11.6328125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="19.6328125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="46.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" style="9"/>
-    <col min="8" max="8" width="82.453125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="9.08984375" style="9"/>
+    <col min="1" max="1" width="9.109375" style="9"/>
+    <col min="2" max="2" width="11.6640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="9"/>
+    <col min="8" max="8" width="82.44140625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="30" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:6" ht="30" x14ac:dyDescent="0.5">
       <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="51" t="s">
         <v>170</v>
@@ -19032,19 +19019,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="154" t="s">
+      <c r="C5" s="153" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="155"/>
+      <c r="D5" s="154"/>
       <c r="F5" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="35" t="s">
         <v>171</v>
       </c>
@@ -19056,7 +19043,7 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="35" t="s">
         <v>171</v>
       </c>
@@ -19068,7 +19055,7 @@
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="2:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="35" t="s">
         <v>171</v>
       </c>
@@ -19082,7 +19069,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="35" t="s">
         <v>171</v>
       </c>
@@ -19094,19 +19081,19 @@
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="156" t="s">
+      <c r="C10" s="155" t="s">
         <v>187</v>
       </c>
-      <c r="D10" s="157"/>
+      <c r="D10" s="156"/>
       <c r="F10" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="35" t="s">
         <v>173</v>
       </c>
@@ -19117,7 +19104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="35" t="s">
         <v>173</v>
       </c>
@@ -19131,7 +19118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="35" t="s">
         <v>173</v>
       </c>
@@ -19142,7 +19129,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14" s="35" t="s">
         <v>173</v>
       </c>
@@ -19156,16 +19143,16 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="156" t="s">
+      <c r="C15" s="155" t="s">
         <v>188</v>
       </c>
-      <c r="D15" s="157"/>
-    </row>
-    <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="156"/>
+    </row>
+    <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="35" t="s">
         <v>174</v>
       </c>
@@ -19179,7 +19166,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B17" s="35" t="s">
         <v>174</v>
       </c>
@@ -19193,7 +19180,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B18" s="35" t="s">
         <v>174</v>
       </c>
@@ -19207,7 +19194,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B19" s="35" t="s">
         <v>174</v>
       </c>
@@ -19221,19 +19208,19 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="156" t="s">
+      <c r="C20" s="155" t="s">
         <v>189</v>
       </c>
-      <c r="D20" s="157"/>
+      <c r="D20" s="156"/>
       <c r="F20" s="9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="35" t="s">
         <v>175</v>
       </c>
@@ -19244,7 +19231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B22" s="35" t="s">
         <v>175</v>
       </c>
@@ -19255,7 +19242,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B23" s="35" t="s">
         <v>175</v>
       </c>
@@ -19269,7 +19256,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B24" s="35" t="s">
         <v>175</v>
       </c>
@@ -19283,19 +19270,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="C25" s="156" t="s">
+      <c r="C25" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="157"/>
+      <c r="D25" s="156"/>
       <c r="F25" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="35" t="s">
         <v>176</v>
       </c>
@@ -19309,7 +19296,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B27" s="35" t="s">
         <v>176</v>
       </c>
@@ -19320,7 +19307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B28" s="35" t="s">
         <v>176</v>
       </c>
@@ -19331,7 +19318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="37" t="s">
         <v>176</v>
       </c>
@@ -19342,13 +19329,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="30" x14ac:dyDescent="0.6">
+    <row r="33" spans="2:5" ht="30" x14ac:dyDescent="0.5">
       <c r="B33" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="54" t="s">
         <v>636</v>
       </c>
@@ -19386,7 +19373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="48" t="s">
         <v>24</v>
       </c>
@@ -19482,13 +19469,13 @@
         <v>193</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="30" x14ac:dyDescent="0.6">
+    <row r="63" spans="2:5" ht="30" x14ac:dyDescent="0.5">
       <c r="B63" s="14" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="64" spans="2:5" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="2:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="2:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="33" t="s">
         <v>592</v>
       </c>
@@ -19496,7 +19483,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B66" s="30" t="s">
         <v>45</v>
       </c>
@@ -19504,7 +19491,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B67" s="35" t="s">
         <v>43</v>
       </c>
@@ -19515,7 +19502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B68" s="35" t="s">
         <v>594</v>
       </c>
@@ -19523,7 +19510,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B69" s="35" t="s">
         <v>46</v>
       </c>
@@ -19534,7 +19521,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B70" s="35" t="s">
         <v>655</v>
       </c>
@@ -19542,7 +19529,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="71" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B71" s="35" t="s">
         <v>54</v>
       </c>
@@ -19553,7 +19540,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B72" s="35" t="s">
         <v>595</v>
       </c>
@@ -19561,7 +19548,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="73" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B73" s="35" t="s">
         <v>145</v>
       </c>
@@ -19569,7 +19556,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B74" s="35" t="s">
         <v>63</v>
       </c>
@@ -19577,7 +19564,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B75" s="35" t="s">
         <v>81</v>
       </c>
@@ -19585,7 +19572,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="76" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B76" s="35" t="s">
         <v>67</v>
       </c>
@@ -19593,7 +19580,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B77" s="35" t="s">
         <v>108</v>
       </c>
@@ -19601,7 +19588,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="78" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B78" s="35" t="s">
         <v>55</v>
       </c>
@@ -19609,7 +19596,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="79" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B79" s="35" t="s">
         <v>109</v>
       </c>
@@ -19617,7 +19604,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="80" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B80" s="35" t="s">
         <v>139</v>
       </c>
@@ -19625,7 +19612,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="81" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B81" s="35" t="s">
         <v>50</v>
       </c>
@@ -19633,7 +19620,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B82" s="35" t="s">
         <v>52</v>
       </c>
@@ -19641,7 +19628,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B83" s="35" t="s">
         <v>77</v>
       </c>
@@ -19649,7 +19636,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="84" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B84" s="35" t="s">
         <v>48</v>
       </c>
@@ -19657,7 +19644,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="85" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B85" s="35" t="s">
         <v>596</v>
       </c>
@@ -19665,7 +19652,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B86" s="35" t="s">
         <v>59</v>
       </c>
@@ -19673,7 +19660,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B87" s="35" t="s">
         <v>79</v>
       </c>
@@ -19681,7 +19668,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B88" s="35" t="s">
         <v>73</v>
       </c>
@@ -19689,7 +19676,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B89" s="35" t="s">
         <v>75</v>
       </c>
@@ -19697,7 +19684,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B90" s="35" t="s">
         <v>69</v>
       </c>
@@ -19705,7 +19692,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B91" s="35" t="s">
         <v>33</v>
       </c>
@@ -19713,7 +19700,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="92" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B92" s="35" t="s">
         <v>597</v>
       </c>
@@ -19721,7 +19708,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="2:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B93" s="35" t="s">
         <v>34</v>
       </c>
@@ -19729,7 +19716,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="94" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B94" s="35" t="s">
         <v>35</v>
       </c>
@@ -19737,7 +19724,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="95" spans="2:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B95" s="35" t="s">
         <v>36</v>
       </c>
@@ -19745,7 +19732,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="96" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B96" s="35" t="s">
         <v>121</v>
       </c>
@@ -19753,7 +19740,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="97" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B97" s="35" t="s">
         <v>123</v>
       </c>
@@ -19761,7 +19748,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="98" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B98" s="35" t="s">
         <v>124</v>
       </c>
@@ -19769,7 +19756,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="99" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B99" s="35" t="s">
         <v>126</v>
       </c>
@@ -19777,7 +19764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B100" s="35" t="s">
         <v>127</v>
       </c>
@@ -19785,7 +19772,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="101" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B101" s="35" t="s">
         <v>129</v>
       </c>
@@ -19793,7 +19780,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="102" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B102" s="35" t="s">
         <v>57</v>
       </c>
@@ -19801,7 +19788,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="103" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B103" s="35" t="s">
         <v>95</v>
       </c>
@@ -19809,7 +19796,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="104" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B104" s="35" t="s">
         <v>99</v>
       </c>
@@ -19817,7 +19804,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B105" s="35" t="s">
         <v>84</v>
       </c>
@@ -19825,7 +19812,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B106" s="35" t="s">
         <v>133</v>
       </c>
@@ -19833,7 +19820,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="107" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B107" s="35" t="s">
         <v>598</v>
       </c>
@@ -19841,7 +19828,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B108" s="35" t="s">
         <v>91</v>
       </c>
@@ -19849,7 +19836,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="109" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B109" s="35" t="s">
         <v>93</v>
       </c>
@@ -19857,7 +19844,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="110" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B110" s="35" t="s">
         <v>105</v>
       </c>
@@ -19865,7 +19852,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="111" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B111" s="35" t="s">
         <v>106</v>
       </c>
@@ -19873,7 +19860,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="112" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B112" s="35" t="s">
         <v>65</v>
       </c>
@@ -19881,7 +19868,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="113" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B113" s="35" t="s">
         <v>110</v>
       </c>
@@ -19889,7 +19876,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B114" s="35" t="s">
         <v>112</v>
       </c>
@@ -19897,7 +19884,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B115" s="35" t="s">
         <v>114</v>
       </c>
@@ -19905,7 +19892,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B116" s="35" t="s">
         <v>61</v>
       </c>
@@ -19913,7 +19900,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="117" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B117" s="35" t="s">
         <v>39</v>
       </c>
@@ -19921,7 +19908,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="118" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B118" s="35" t="s">
         <v>116</v>
       </c>
@@ -19929,7 +19916,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B119" s="35" t="s">
         <v>97</v>
       </c>
@@ -19937,7 +19924,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="120" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B120" s="35" t="s">
         <v>88</v>
       </c>
@@ -19945,7 +19932,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="121" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B121" s="35" t="s">
         <v>495</v>
       </c>
@@ -19953,7 +19940,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B122" s="35" t="s">
         <v>119</v>
       </c>
@@ -19961,7 +19948,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B123" s="35" t="s">
         <v>101</v>
       </c>
@@ -19969,7 +19956,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="124" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B124" s="35" t="s">
         <v>40</v>
       </c>
@@ -19977,7 +19964,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="125" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B125" s="35" t="s">
         <v>56</v>
       </c>
@@ -19985,7 +19972,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="126" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B126" s="35" t="s">
         <v>86</v>
       </c>
@@ -19993,7 +19980,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="127" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B127" s="35" t="s">
         <v>600</v>
       </c>
@@ -20001,7 +19988,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="128" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B128" s="35" t="s">
         <v>103</v>
       </c>
@@ -20009,7 +19996,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="129" spans="2:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B129" s="35" t="s">
         <v>430</v>
       </c>
@@ -20017,7 +20004,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="130" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B130" s="35" t="s">
         <v>601</v>
       </c>
@@ -20025,7 +20012,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="131" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B131" s="35" t="s">
         <v>71</v>
       </c>
@@ -20033,7 +20020,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="132" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B132" s="35" t="s">
         <v>141</v>
       </c>
@@ -20041,7 +20028,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="133" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B133" s="35" t="s">
         <v>143</v>
       </c>
@@ -20049,7 +20036,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="2:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B134" s="35" t="s">
         <v>137</v>
       </c>
@@ -20057,7 +20044,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="135" spans="2:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B135" s="35" t="s">
         <v>131</v>
       </c>
@@ -20065,7 +20052,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="136" spans="2:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B136" s="35" t="s">
         <v>82</v>
       </c>
@@ -20073,7 +20060,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="137" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B137" s="57" t="s">
         <v>62</v>
       </c>
@@ -20081,7 +20068,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="138" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B138" s="89" t="s">
         <v>716</v>
       </c>
@@ -20089,7 +20076,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="139" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B139" s="89" t="s">
         <v>774</v>
       </c>
@@ -20097,7 +20084,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="140" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B140" s="89" t="s">
         <v>776</v>
       </c>
@@ -20105,7 +20092,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="141" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B141" s="59" t="s">
         <v>660</v>
       </c>
@@ -20130,31 +20117,31 @@
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" s="2"/>
     </row>
-    <row r="146" spans="2:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="146" spans="2:7" ht="30" x14ac:dyDescent="0.5">
       <c r="B146" s="14" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="147" spans="2:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="147" spans="2:7" ht="30" x14ac:dyDescent="0.5">
       <c r="B147" s="14"/>
     </row>
     <row r="148" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C148" s="151" t="s">
+      <c r="C148" s="150" t="s">
         <v>664</v>
       </c>
-      <c r="D148" s="151"/>
-      <c r="E148" s="151"/>
-      <c r="F148" s="151"/>
-      <c r="G148" s="151"/>
+      <c r="D148" s="150"/>
+      <c r="E148" s="150"/>
+      <c r="F148" s="150"/>
+      <c r="G148" s="150"/>
     </row>
     <row r="149" spans="2:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C149" s="152" t="s">
+      <c r="C149" s="151" t="s">
         <v>745</v>
       </c>
-      <c r="D149" s="153"/>
-      <c r="E149" s="153"/>
-      <c r="F149" s="153"/>
-      <c r="G149" s="153"/>
+      <c r="D149" s="152"/>
+      <c r="E149" s="152"/>
+      <c r="F149" s="152"/>
+      <c r="G149" s="152"/>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C151" s="9" t="s">
@@ -20176,12 +20163,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="159" spans="2:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="159" spans="2:7" ht="30" x14ac:dyDescent="0.5">
       <c r="B159" s="14" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="160" spans="2:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="160" spans="2:7" ht="30" x14ac:dyDescent="0.5">
       <c r="B160" s="14"/>
     </row>
     <row r="161" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -20207,15 +20194,15 @@
         <v>166</v>
       </c>
     </row>
-    <row r="170" spans="2:8" ht="30" x14ac:dyDescent="0.6">
+    <row r="170" spans="2:8" ht="30" x14ac:dyDescent="0.5">
       <c r="B170" s="90" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="171" spans="2:8" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B171" s="91"/>
     </row>
-    <row r="172" spans="2:8" ht="47" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B172" s="92" t="s">
         <v>515</v>
       </c>
@@ -20232,7 +20219,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="173" spans="2:8" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B173" s="95" t="s">
         <v>607</v>
       </c>
@@ -20247,7 +20234,7 @@
       </c>
       <c r="F173" s="69"/>
     </row>
-    <row r="174" spans="2:8" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:8" ht="79.2" x14ac:dyDescent="0.25">
       <c r="B174" s="96" t="s">
         <v>607</v>
       </c>
@@ -20265,7 +20252,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="175" spans="2:8" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B175" s="96" t="s">
         <v>607</v>
       </c>
@@ -20281,7 +20268,7 @@
       <c r="F175" s="73"/>
       <c r="H175" s="10"/>
     </row>
-    <row r="176" spans="2:8" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B176" s="97" t="s">
         <v>611</v>
       </c>
@@ -20299,7 +20286,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="177" spans="2:8" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B177" s="96" t="s">
         <v>611</v>
       </c>
@@ -20314,7 +20301,7 @@
       </c>
       <c r="F177" s="73"/>
     </row>
-    <row r="178" spans="2:8" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B178" s="96" t="s">
         <v>724</v>
       </c>
@@ -20332,7 +20319,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="179" spans="2:8" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B179" s="96" t="s">
         <v>724</v>
       </c>
@@ -20350,7 +20337,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="180" spans="2:8" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B180" s="96" t="s">
         <v>614</v>
       </c>
@@ -20368,7 +20355,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="181" spans="2:8" ht="31" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B181" s="96" t="s">
         <v>614</v>
       </c>
@@ -20386,7 +20373,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="182" spans="2:8" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B182" s="96">
         <v>531110</v>
       </c>
@@ -20404,7 +20391,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="183" spans="2:8" ht="31" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B183" s="96">
         <v>531110</v>
       </c>
@@ -20419,7 +20406,7 @@
       </c>
       <c r="F183" s="73"/>
     </row>
-    <row r="184" spans="2:8" ht="31" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B184" s="96">
         <v>531120</v>
       </c>
@@ -20437,7 +20424,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="185" spans="2:8" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:8" ht="46.8" x14ac:dyDescent="0.25">
       <c r="B185" s="96">
         <v>531120</v>
       </c>
@@ -20451,11 +20438,11 @@
         <v>38500000</v>
       </c>
       <c r="F185" s="73"/>
-      <c r="H185" s="151" t="s">
+      <c r="H185" s="150" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="186" spans="2:8" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B186" s="96">
         <v>531130</v>
       </c>
@@ -20469,9 +20456,9 @@
         <v>27500000</v>
       </c>
       <c r="F186" s="73"/>
-      <c r="H186" s="151"/>
-    </row>
-    <row r="187" spans="2:8" ht="31" x14ac:dyDescent="0.25">
+      <c r="H186" s="150"/>
+    </row>
+    <row r="187" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B187" s="96">
         <v>531130</v>
       </c>
@@ -20486,7 +20473,7 @@
       </c>
       <c r="F187" s="73"/>
     </row>
-    <row r="188" spans="2:8" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B188" s="96">
         <v>531190</v>
       </c>
@@ -20501,7 +20488,7 @@
       </c>
       <c r="F188" s="73"/>
     </row>
-    <row r="189" spans="2:8" ht="31" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B189" s="96">
         <v>531190</v>
       </c>
@@ -20516,7 +20503,7 @@
       </c>
       <c r="F189" s="73"/>
     </row>
-    <row r="190" spans="2:8" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B190" s="96" t="s">
         <v>620</v>
       </c>
@@ -20531,7 +20518,7 @@
       </c>
       <c r="F190" s="73"/>
     </row>
-    <row r="191" spans="2:8" ht="31" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:8" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B191" s="96" t="s">
         <v>620</v>
       </c>
@@ -20546,7 +20533,7 @@
       </c>
       <c r="F191" s="73"/>
     </row>
-    <row r="192" spans="2:8" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:8" ht="46.8" x14ac:dyDescent="0.25">
       <c r="B192" s="96" t="s">
         <v>620</v>
       </c>
@@ -20561,7 +20548,7 @@
       </c>
       <c r="F192" s="73"/>
     </row>
-    <row r="193" spans="2:6" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B193" s="96" t="s">
         <v>620</v>
       </c>
@@ -20576,7 +20563,7 @@
       </c>
       <c r="F193" s="73"/>
     </row>
-    <row r="194" spans="2:6" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B194" s="96" t="s">
         <v>625</v>
       </c>
@@ -20591,7 +20578,7 @@
       </c>
       <c r="F194" s="73"/>
     </row>
-    <row r="195" spans="2:6" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B195" s="96" t="s">
         <v>625</v>
       </c>
@@ -20606,7 +20593,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="196" spans="2:6" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:6" ht="46.8" x14ac:dyDescent="0.25">
       <c r="B196" s="96" t="s">
         <v>735</v>
       </c>
@@ -20621,7 +20608,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="197" spans="2:6" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B197" s="96" t="s">
         <v>735</v>
       </c>
@@ -20636,7 +20623,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="198" spans="2:6" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B198" s="96" t="s">
         <v>735</v>
       </c>
@@ -20651,7 +20638,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="199" spans="2:6" ht="31" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B199" s="96" t="s">
         <v>735</v>
       </c>
@@ -20666,7 +20653,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="200" spans="2:6" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B200" s="96" t="s">
         <v>630</v>
       </c>
@@ -20681,7 +20668,7 @@
       </c>
       <c r="F200" s="73"/>
     </row>
-    <row r="201" spans="2:6" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B201" s="96" t="s">
         <v>630</v>
       </c>
@@ -20696,7 +20683,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="202" spans="2:6" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B202" s="96" t="s">
         <v>633</v>
       </c>
@@ -20711,7 +20698,7 @@
       </c>
       <c r="F202" s="73"/>
     </row>
-    <row r="203" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B203" s="98" t="s">
         <v>633</v>
       </c>
@@ -20726,13 +20713,13 @@
       </c>
       <c r="F203" s="81"/>
     </row>
-    <row r="206" spans="2:6" ht="30" x14ac:dyDescent="0.6">
+    <row r="206" spans="2:6" ht="30" x14ac:dyDescent="0.5">
       <c r="B206" s="90" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="207" spans="2:6" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="208" spans="2:6" ht="47" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="208" spans="2:6" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B208" s="63" t="s">
         <v>515</v>
       </c>
@@ -20749,7 +20736,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="209" spans="2:6" ht="31" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B209" s="66" t="s">
         <v>607</v>
       </c>
@@ -20764,7 +20751,7 @@
       </c>
       <c r="F209" s="69"/>
     </row>
-    <row r="210" spans="2:6" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B210" s="70" t="s">
         <v>607</v>
       </c>
@@ -20779,7 +20766,7 @@
       </c>
       <c r="F210" s="73"/>
     </row>
-    <row r="211" spans="2:6" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B211" s="70" t="s">
         <v>607</v>
       </c>
@@ -20794,7 +20781,7 @@
       </c>
       <c r="F211" s="73"/>
     </row>
-    <row r="212" spans="2:6" ht="31" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B212" s="74" t="s">
         <v>611</v>
       </c>
@@ -20809,7 +20796,7 @@
       </c>
       <c r="F212" s="77"/>
     </row>
-    <row r="213" spans="2:6" ht="31" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B213" s="70" t="s">
         <v>611</v>
       </c>
@@ -20824,7 +20811,7 @@
       </c>
       <c r="F213" s="73"/>
     </row>
-    <row r="214" spans="2:6" ht="31" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B214" s="70">
         <v>238990</v>
       </c>
@@ -20839,7 +20826,7 @@
       </c>
       <c r="F214" s="73"/>
     </row>
-    <row r="215" spans="2:6" ht="31" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B215" s="70">
         <v>238990</v>
       </c>
@@ -20854,7 +20841,7 @@
       </c>
       <c r="F215" s="73"/>
     </row>
-    <row r="216" spans="2:6" ht="31" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B216" s="70" t="s">
         <v>614</v>
       </c>
@@ -20869,7 +20856,7 @@
       </c>
       <c r="F216" s="73"/>
     </row>
-    <row r="217" spans="2:6" ht="31" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B217" s="70" t="s">
         <v>614</v>
       </c>
@@ -20884,7 +20871,7 @@
       </c>
       <c r="F217" s="73"/>
     </row>
-    <row r="218" spans="2:6" ht="31" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B218" s="70" t="s">
         <v>617</v>
       </c>
@@ -20899,7 +20886,7 @@
       </c>
       <c r="F218" s="73"/>
     </row>
-    <row r="219" spans="2:6" ht="31" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B219" s="70" t="s">
         <v>617</v>
       </c>
@@ -20914,7 +20901,7 @@
       </c>
       <c r="F219" s="73"/>
     </row>
-    <row r="220" spans="2:6" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B220" s="70">
         <v>541330</v>
       </c>
@@ -20929,7 +20916,7 @@
       </c>
       <c r="F220" s="73"/>
     </row>
-    <row r="221" spans="2:6" ht="31" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B221" s="70" t="s">
         <v>620</v>
       </c>
@@ -20944,7 +20931,7 @@
       </c>
       <c r="F221" s="73"/>
     </row>
-    <row r="222" spans="2:6" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:6" ht="46.8" x14ac:dyDescent="0.25">
       <c r="B222" s="70" t="s">
         <v>620</v>
       </c>
@@ -20959,7 +20946,7 @@
       </c>
       <c r="F222" s="73"/>
     </row>
-    <row r="223" spans="2:6" ht="31" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B223" s="70" t="s">
         <v>620</v>
       </c>
@@ -20974,7 +20961,7 @@
       </c>
       <c r="F223" s="73"/>
     </row>
-    <row r="224" spans="2:6" ht="31" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B224" s="70" t="s">
         <v>625</v>
       </c>
@@ -20989,7 +20976,7 @@
       </c>
       <c r="F224" s="73"/>
     </row>
-    <row r="225" spans="2:6" ht="31" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B225" s="70" t="s">
         <v>625</v>
       </c>
@@ -21006,7 +20993,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="226" spans="2:6" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:6" ht="46.8" x14ac:dyDescent="0.25">
       <c r="B226" s="70" t="s">
         <v>628</v>
       </c>
@@ -21023,7 +21010,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="227" spans="2:6" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B227" s="70" t="s">
         <v>628</v>
       </c>
@@ -21040,7 +21027,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="228" spans="2:6" ht="31" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B228" s="70" t="s">
         <v>628</v>
       </c>
@@ -21057,7 +21044,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="229" spans="2:6" ht="31" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:6" ht="46.8" x14ac:dyDescent="0.25">
       <c r="B229" s="70" t="s">
         <v>628</v>
       </c>
@@ -21074,7 +21061,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="230" spans="2:6" ht="15.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B230" s="70" t="s">
         <v>630</v>
       </c>
@@ -21089,7 +21076,7 @@
       </c>
       <c r="F230" s="73"/>
     </row>
-    <row r="231" spans="2:6" ht="31" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B231" s="70" t="s">
         <v>630</v>
       </c>
@@ -21106,7 +21093,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="232" spans="2:6" ht="31" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="B232" s="70" t="s">
         <v>633</v>
       </c>
@@ -21121,7 +21108,7 @@
       </c>
       <c r="F232" s="73"/>
     </row>
-    <row r="233" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B233" s="78" t="s">
         <v>633</v>
       </c>
@@ -21142,13 +21129,13 @@
     <row r="235" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D235" s="6"/>
     </row>
-    <row r="237" spans="2:6" ht="30" x14ac:dyDescent="0.6">
+    <row r="237" spans="2:6" ht="30" x14ac:dyDescent="0.5">
       <c r="B237" s="14" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="238" spans="2:6" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="239" spans="2:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="239" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B239" s="54" t="s">
         <v>592</v>
       </c>
@@ -21159,7 +21146,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="240" spans="2:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B240" s="39" t="s">
         <v>153</v>
       </c>
@@ -21167,7 +21154,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="241" spans="2:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B241" s="39" t="s">
         <v>158</v>
       </c>
@@ -21178,7 +21165,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="242" spans="2:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B242" s="41" t="s">
         <v>156</v>
       </c>
@@ -21234,9 +21221,9 @@
       <selection activeCell="B3" sqref="B3:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>392</v>
       </c>
@@ -21244,7 +21231,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>687</v>
       </c>
@@ -21252,7 +21239,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>205</v>
       </c>
@@ -21260,7 +21247,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>204</v>
       </c>
@@ -21268,7 +21255,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>688</v>
       </c>
@@ -21276,22 +21263,22 @@
         <v>512</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>699</v>
       </c>
